--- a/PMI_eXcent_App/static/docs/Base_de_donnees_pages_de_questions.xlsx
+++ b/PMI_eXcent_App/static/docs/Base_de_donnees_pages_de_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33787\OneDrive\Bureau\Aero 5\PMI\Site\Django_PMI_Project\Django_Project_eXcent\PMI_eXcent_App\static\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06E17B0-7264-44AA-BC21-9B963E1551B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD11A5A-65D5-4431-ABA1-357D20728E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F14E2F11-AA59-4018-A733-B08A5111FCD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F14E2F11-AA59-4018-A733-B08A5111FCD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Mise en sécurité" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="334">
   <si>
     <t>Id Question</t>
   </si>
@@ -270,9 +270,6 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>Demander à quelqu'un de formé sur le Jacson de prendre le relais</t>
-  </si>
-  <si>
     <t>Ask for someone who got the formation.</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>Peut-on le baisser ?</t>
   </si>
   <si>
-    <t>Mauvaise utilisation ?</t>
-  </si>
-  <si>
     <t>Is it possible to move it to a down position ?</t>
   </si>
   <si>
@@ -1195,6 +1189,9 @@
   </si>
   <si>
     <t>picto_danger.png</t>
+  </si>
+  <si>
+    <t>Demander à quelqu'un de formé sur le JacXson de prendre le relais</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1671,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="158">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD85B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4068,27 +4079,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25DED847-7F62-4A83-88B5-582F143FAF01}" name="Tableau1" displayName="Tableau1" ref="A1:R27" totalsRowShown="0" headerRowDxfId="155" dataDxfId="153" headerRowBorderDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25DED847-7F62-4A83-88B5-582F143FAF01}" name="Tableau1" displayName="Tableau1" ref="A1:R27" totalsRowShown="0" headerRowDxfId="157" dataDxfId="155" headerRowBorderDxfId="156">
   <autoFilter ref="A1:R27" xr:uid="{25DED847-7F62-4A83-88B5-582F143FAF01}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{BB6BD673-11DF-45BD-91CF-A445ED364064}" name="Id Question" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{0F6911BA-C831-4381-9050-69F4D0EB0E50}" name="Question de la page" dataDxfId="151"/>
-    <tableColumn id="18" xr3:uid="{23E073B4-AE19-4220-94B7-F94DD1B5121C}" name="Question en anglais" dataDxfId="150"/>
-    <tableColumn id="17" xr3:uid="{B5BDB423-D63D-48F2-B6A4-60B94D254C53}" name="Type de question" dataDxfId="149"/>
-    <tableColumn id="3" xr3:uid="{A03EFEF8-5102-4B9B-86D8-736D224F4E81}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="148"/>
-    <tableColumn id="4" xr3:uid="{109FA2AD-E875-4904-8BDC-3AFD9429DE44}" name="Noms photos (ex: img.png)" dataDxfId="147"/>
-    <tableColumn id="5" xr3:uid="{45E63A64-78F8-4AAB-A22F-6AD4291F722C}" name="Pictogrammes" dataDxfId="146"/>
-    <tableColumn id="6" xr3:uid="{EAF2F072-57D6-4685-899E-4A6CC2E28358}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="145"/>
-    <tableColumn id="7" xr3:uid="{5E2E353B-EE56-4BDA-B79A-3E10401F518E}" name="Question suivante si Oui" dataDxfId="144"/>
-    <tableColumn id="8" xr3:uid="{C35937AA-A15E-4319-88E5-2C3C6DFF5457}" name="Partie Question suivante si Oui" dataDxfId="143"/>
-    <tableColumn id="9" xr3:uid="{E48AB6E6-7180-45B5-8631-6AB070D4C5FE}" name="Id Question suivante si Non" dataDxfId="142"/>
-    <tableColumn id="10" xr3:uid="{9DBE0E54-1E3E-4B25-87FA-16ADE4B407CB}" name="Questions suivante si Non" dataDxfId="141"/>
-    <tableColumn id="11" xr3:uid="{4F8C9C3C-C21F-4B80-B2BD-9B6D6CC6FEBA}" name="Partie Question suivante si Non" dataDxfId="140"/>
-    <tableColumn id="12" xr3:uid="{47C1ED25-4B47-4B29-B6F2-B290B7C2F369}" name="Id Question précédente" dataDxfId="139"/>
-    <tableColumn id="13" xr3:uid="{8B2B55D3-A9C3-455E-9BD6-9E5106EFBB42}" name="Question précédente" dataDxfId="138"/>
-    <tableColumn id="14" xr3:uid="{C1F0DD37-FC8D-4D0C-8BB2-27FC614FB06A}" name="Partie Question précédente" dataDxfId="137"/>
-    <tableColumn id="15" xr3:uid="{4DAA0197-BF35-42AC-8086-8FF14E7F4873}" name="Informations complémentaires pour cette question" dataDxfId="136"/>
-    <tableColumn id="16" xr3:uid="{AE5C27BC-4B90-4D6D-A4D3-787982526DA6}" name="Colonne1" dataDxfId="135">
+    <tableColumn id="1" xr3:uid="{BB6BD673-11DF-45BD-91CF-A445ED364064}" name="Id Question" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{0F6911BA-C831-4381-9050-69F4D0EB0E50}" name="Question de la page" dataDxfId="153"/>
+    <tableColumn id="18" xr3:uid="{23E073B4-AE19-4220-94B7-F94DD1B5121C}" name="Question en anglais" dataDxfId="152"/>
+    <tableColumn id="17" xr3:uid="{B5BDB423-D63D-48F2-B6A4-60B94D254C53}" name="Type de question" dataDxfId="151"/>
+    <tableColumn id="3" xr3:uid="{A03EFEF8-5102-4B9B-86D8-736D224F4E81}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{109FA2AD-E875-4904-8BDC-3AFD9429DE44}" name="Noms photos (ex: img.png)" dataDxfId="149"/>
+    <tableColumn id="5" xr3:uid="{45E63A64-78F8-4AAB-A22F-6AD4291F722C}" name="Pictogrammes" dataDxfId="148"/>
+    <tableColumn id="6" xr3:uid="{EAF2F072-57D6-4685-899E-4A6CC2E28358}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="147"/>
+    <tableColumn id="7" xr3:uid="{5E2E353B-EE56-4BDA-B79A-3E10401F518E}" name="Question suivante si Oui" dataDxfId="146"/>
+    <tableColumn id="8" xr3:uid="{C35937AA-A15E-4319-88E5-2C3C6DFF5457}" name="Partie Question suivante si Oui" dataDxfId="145"/>
+    <tableColumn id="9" xr3:uid="{E48AB6E6-7180-45B5-8631-6AB070D4C5FE}" name="Id Question suivante si Non" dataDxfId="144"/>
+    <tableColumn id="10" xr3:uid="{9DBE0E54-1E3E-4B25-87FA-16ADE4B407CB}" name="Questions suivante si Non" dataDxfId="143"/>
+    <tableColumn id="11" xr3:uid="{4F8C9C3C-C21F-4B80-B2BD-9B6D6CC6FEBA}" name="Partie Question suivante si Non" dataDxfId="142"/>
+    <tableColumn id="12" xr3:uid="{47C1ED25-4B47-4B29-B6F2-B290B7C2F369}" name="Id Question précédente" dataDxfId="141"/>
+    <tableColumn id="13" xr3:uid="{8B2B55D3-A9C3-455E-9BD6-9E5106EFBB42}" name="Question précédente" dataDxfId="140"/>
+    <tableColumn id="14" xr3:uid="{C1F0DD37-FC8D-4D0C-8BB2-27FC614FB06A}" name="Partie Question précédente" dataDxfId="139"/>
+    <tableColumn id="15" xr3:uid="{4DAA0197-BF35-42AC-8086-8FF14E7F4873}" name="Informations complémentaires pour cette question" dataDxfId="138"/>
+    <tableColumn id="16" xr3:uid="{AE5C27BC-4B90-4D6D-A4D3-787982526DA6}" name="Colonne1" dataDxfId="137">
       <calculatedColumnFormula>IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4097,35 +4108,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{722A7233-30BC-468E-B87F-D094660B369D}" name="Tableau2" displayName="Tableau2" ref="A1:X32" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{722A7233-30BC-468E-B87F-D094660B369D}" name="Tableau2" displayName="Tableau2" ref="A1:X32" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135" tableBorderDxfId="133">
   <autoFilter ref="A1:X32" xr:uid="{722A7233-30BC-468E-B87F-D094660B369D}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{7D10BA06-D09C-4CE0-8CFC-140E4B15DA6C}" name="Id Question" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{3F8AF28B-7050-4046-88EC-36DA1AE8DB70}" name="Question de la page" dataDxfId="129"/>
-    <tableColumn id="24" xr3:uid="{6FE327E5-623A-4AAD-8492-B52CDB00A518}" name="Question en anglais" dataDxfId="128"/>
-    <tableColumn id="16" xr3:uid="{D68406F9-CC94-4090-BC10-B13A68F8B946}" name="Type de question" dataDxfId="127"/>
-    <tableColumn id="3" xr3:uid="{61CA71A5-630A-48A0-B6AA-225E63CD2E37}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{EEBCE150-B656-4B0C-98E6-F36D24B3837E}" name="Noms photos (ex: img.png)" dataDxfId="125"/>
-    <tableColumn id="5" xr3:uid="{3AF343B3-57DE-4721-AA3B-8451F3F78DA2}" name="Pictogrammes" dataDxfId="124"/>
-    <tableColumn id="6" xr3:uid="{ACB1351D-F07D-43D1-A4FF-972E866BF484}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="123"/>
-    <tableColumn id="7" xr3:uid="{7C180A2A-256F-4FD5-AB1F-5560250DFB58}" name="Question suivante si Oui" dataDxfId="122"/>
-    <tableColumn id="8" xr3:uid="{E372938C-B485-4090-AE5E-98DC3CA0C327}" name="Partie Question suivante si Oui" dataDxfId="121"/>
-    <tableColumn id="9" xr3:uid="{8419045A-C1CF-44EB-8512-977D6862CCC1}" name="Id Question suivante si Non" dataDxfId="120"/>
-    <tableColumn id="10" xr3:uid="{B393FC4D-273E-49CA-BA0A-26A05723466B}" name="Questions suivante si Non" dataDxfId="119">
+    <tableColumn id="1" xr3:uid="{7D10BA06-D09C-4CE0-8CFC-140E4B15DA6C}" name="Id Question" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{3F8AF28B-7050-4046-88EC-36DA1AE8DB70}" name="Question de la page" dataDxfId="131"/>
+    <tableColumn id="24" xr3:uid="{6FE327E5-623A-4AAD-8492-B52CDB00A518}" name="Question en anglais" dataDxfId="130"/>
+    <tableColumn id="16" xr3:uid="{D68406F9-CC94-4090-BC10-B13A68F8B946}" name="Type de question" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{61CA71A5-630A-48A0-B6AA-225E63CD2E37}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{EEBCE150-B656-4B0C-98E6-F36D24B3837E}" name="Noms photos (ex: img.png)" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{3AF343B3-57DE-4721-AA3B-8451F3F78DA2}" name="Pictogrammes" dataDxfId="126"/>
+    <tableColumn id="6" xr3:uid="{ACB1351D-F07D-43D1-A4FF-972E866BF484}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="125"/>
+    <tableColumn id="7" xr3:uid="{7C180A2A-256F-4FD5-AB1F-5560250DFB58}" name="Question suivante si Oui" dataDxfId="124"/>
+    <tableColumn id="8" xr3:uid="{E372938C-B485-4090-AE5E-98DC3CA0C327}" name="Partie Question suivante si Oui" dataDxfId="123"/>
+    <tableColumn id="9" xr3:uid="{8419045A-C1CF-44EB-8512-977D6862CCC1}" name="Id Question suivante si Non" dataDxfId="122"/>
+    <tableColumn id="10" xr3:uid="{B393FC4D-273E-49CA-BA0A-26A05723466B}" name="Questions suivante si Non" dataDxfId="121">
       <calculatedColumnFormula>VLOOKUP(K2,A1:B93,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9E7B5206-1177-471B-A2B1-F9D5D9E9C13D}" name="Partie Question suivante si Non" dataDxfId="118"/>
-    <tableColumn id="17" xr3:uid="{FD4D75CA-8C4F-45F7-A71A-6D8C2186DC51}" name="Id Question si Réponse 3" dataDxfId="117"/>
-    <tableColumn id="22" xr3:uid="{C948FD7C-47FE-443F-9E32-16B448A25C33}" name="Partie Question si Réponse 3" dataDxfId="116"/>
-    <tableColumn id="21" xr3:uid="{E77AC701-5F6A-4D79-B7D2-931688B49263}" name="Id Question si Réponse 4" dataDxfId="115"/>
-    <tableColumn id="20" xr3:uid="{3BAA5005-1A10-41E5-B122-F471CFDAE274}" name="Partie Question suivante si Réponse 4" dataDxfId="114"/>
-    <tableColumn id="26" xr3:uid="{510F6965-033A-473E-ABF6-EE83006AB90B}" name="Id Question si Réponse 5" dataDxfId="113"/>
-    <tableColumn id="25" xr3:uid="{222BF05F-A9BD-4091-B972-611178642B18}" name="Partie Question suivante si Réponse 5" dataDxfId="112"/>
-    <tableColumn id="12" xr3:uid="{5A920D4C-1BBB-40F6-ADD8-AC9BAC12473D}" name="Id Question précédente" dataDxfId="111"/>
-    <tableColumn id="13" xr3:uid="{AABCAFD8-43B6-4BCF-A0AA-E7E4FBDD0A9D}" name="Question précédente" dataDxfId="110"/>
-    <tableColumn id="14" xr3:uid="{716F124B-253B-4040-B6C2-7A06918D2314}" name="Partie Question précédente" dataDxfId="109"/>
-    <tableColumn id="15" xr3:uid="{F3AD2111-39B2-4221-86A2-428278D7A6C1}" name="Informations complémentaires pour cette question" dataDxfId="108"/>
-    <tableColumn id="18" xr3:uid="{B9D5F273-41C4-4C3E-8F49-A5FE4236A72E}" name="Colonne1" dataDxfId="107">
+    <tableColumn id="11" xr3:uid="{9E7B5206-1177-471B-A2B1-F9D5D9E9C13D}" name="Partie Question suivante si Non" dataDxfId="120"/>
+    <tableColumn id="17" xr3:uid="{FD4D75CA-8C4F-45F7-A71A-6D8C2186DC51}" name="Id Question si Réponse 3" dataDxfId="119"/>
+    <tableColumn id="22" xr3:uid="{C948FD7C-47FE-443F-9E32-16B448A25C33}" name="Partie Question si Réponse 3" dataDxfId="118"/>
+    <tableColumn id="21" xr3:uid="{E77AC701-5F6A-4D79-B7D2-931688B49263}" name="Id Question si Réponse 4" dataDxfId="117"/>
+    <tableColumn id="20" xr3:uid="{3BAA5005-1A10-41E5-B122-F471CFDAE274}" name="Partie Question suivante si Réponse 4" dataDxfId="116"/>
+    <tableColumn id="26" xr3:uid="{510F6965-033A-473E-ABF6-EE83006AB90B}" name="Id Question si Réponse 5" dataDxfId="115"/>
+    <tableColumn id="25" xr3:uid="{222BF05F-A9BD-4091-B972-611178642B18}" name="Partie Question suivante si Réponse 5" dataDxfId="114"/>
+    <tableColumn id="12" xr3:uid="{5A920D4C-1BBB-40F6-ADD8-AC9BAC12473D}" name="Id Question précédente" dataDxfId="113"/>
+    <tableColumn id="13" xr3:uid="{AABCAFD8-43B6-4BCF-A0AA-E7E4FBDD0A9D}" name="Question précédente" dataDxfId="112"/>
+    <tableColumn id="14" xr3:uid="{716F124B-253B-4040-B6C2-7A06918D2314}" name="Partie Question précédente" dataDxfId="111"/>
+    <tableColumn id="15" xr3:uid="{F3AD2111-39B2-4221-86A2-428278D7A6C1}" name="Informations complémentaires pour cette question" dataDxfId="110"/>
+    <tableColumn id="18" xr3:uid="{B9D5F273-41C4-4C3E-8F49-A5FE4236A72E}" name="Colonne1" dataDxfId="109">
       <calculatedColumnFormula>IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4134,29 +4145,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8587781F-AA83-4B6F-854A-B42669E9F9E9}" name="Tableau3" displayName="Tableau3" ref="A1:R13" totalsRowShown="0" headerRowDxfId="106" dataDxfId="104" headerRowBorderDxfId="105" tableBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8587781F-AA83-4B6F-854A-B42669E9F9E9}" name="Tableau3" displayName="Tableau3" ref="A1:R13" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105">
   <autoFilter ref="A1:R13" xr:uid="{8587781F-AA83-4B6F-854A-B42669E9F9E9}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{3ABA099A-E774-4BEC-9982-663CE507F040}" name="Id Question" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{0F52FA11-27BB-45F3-AD64-38B44B370D11}" name="Question de la page" dataDxfId="101"/>
-    <tableColumn id="17" xr3:uid="{F55230D8-17FD-4514-9E16-640382D180B5}" name="Question en anglais" dataDxfId="100"/>
-    <tableColumn id="16" xr3:uid="{DB033608-E3CD-4EF4-958B-EBFFF29D2E39}" name="Type de question" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{5BF404B4-6821-433E-A1B4-35ADDDDCF1C8}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{275F03BF-CF82-4044-8628-5EC4D9A71D89}" name="Noms photos (ex: img.png)" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{EB07F02D-0D88-4F5F-803D-15E72FCDA697}" name="Pictogrammes" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{9A01372D-7E10-43C8-B806-1F5DCDBB5469}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{1EF6766D-1825-4F80-9223-7B3595BB781E}" name="Question suivante si Oui" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{99AF2F3C-4C21-4712-9EE1-07C0C797DABC}" name="Partie Question suivante si Oui" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{A717076B-51D8-4FD8-8C29-BA088A1E3C31}" name="Id Question suivante si Non" dataDxfId="92"/>
-    <tableColumn id="10" xr3:uid="{BB7DA157-E598-435C-BA8D-9D42978F8B12}" name="Questions suivante si Non" dataDxfId="91"/>
-    <tableColumn id="11" xr3:uid="{425EE330-2DC0-4640-A685-D392A38AB17B}" name="Partie Question suivante si Non" dataDxfId="90"/>
-    <tableColumn id="12" xr3:uid="{EA76ED54-417D-4C57-8DF1-A8588BE67F9F}" name="Id Question précédente" dataDxfId="89"/>
-    <tableColumn id="13" xr3:uid="{5C302BDF-F913-41FC-A681-2E61595457DC}" name="Question précédente" dataDxfId="88">
+    <tableColumn id="1" xr3:uid="{3ABA099A-E774-4BEC-9982-663CE507F040}" name="Id Question" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{0F52FA11-27BB-45F3-AD64-38B44B370D11}" name="Question de la page" dataDxfId="103"/>
+    <tableColumn id="17" xr3:uid="{F55230D8-17FD-4514-9E16-640382D180B5}" name="Question en anglais" dataDxfId="102"/>
+    <tableColumn id="16" xr3:uid="{DB033608-E3CD-4EF4-958B-EBFFF29D2E39}" name="Type de question" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{5BF404B4-6821-433E-A1B4-35ADDDDCF1C8}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{275F03BF-CF82-4044-8628-5EC4D9A71D89}" name="Noms photos (ex: img.png)" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{EB07F02D-0D88-4F5F-803D-15E72FCDA697}" name="Pictogrammes" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{9A01372D-7E10-43C8-B806-1F5DCDBB5469}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{1EF6766D-1825-4F80-9223-7B3595BB781E}" name="Question suivante si Oui" dataDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{99AF2F3C-4C21-4712-9EE1-07C0C797DABC}" name="Partie Question suivante si Oui" dataDxfId="95"/>
+    <tableColumn id="9" xr3:uid="{A717076B-51D8-4FD8-8C29-BA088A1E3C31}" name="Id Question suivante si Non" dataDxfId="94"/>
+    <tableColumn id="10" xr3:uid="{BB7DA157-E598-435C-BA8D-9D42978F8B12}" name="Questions suivante si Non" dataDxfId="93"/>
+    <tableColumn id="11" xr3:uid="{425EE330-2DC0-4640-A685-D392A38AB17B}" name="Partie Question suivante si Non" dataDxfId="92"/>
+    <tableColumn id="12" xr3:uid="{EA76ED54-417D-4C57-8DF1-A8588BE67F9F}" name="Id Question précédente" dataDxfId="91"/>
+    <tableColumn id="13" xr3:uid="{5C302BDF-F913-41FC-A681-2E61595457DC}" name="Question précédente" dataDxfId="90">
       <calculatedColumnFormula>VLOOKUP(N2,$A$1:$B$15,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5EC3AB1E-6357-4CE8-9EB9-BB86576C8978}" name="Partie Question précédente" dataDxfId="87"/>
-    <tableColumn id="15" xr3:uid="{E33DDF1F-1428-4C1F-8CFD-BD7106ABC652}" name="Informations complémentaires pour cette question" dataDxfId="86"/>
-    <tableColumn id="18" xr3:uid="{80002343-FA5C-4F38-8A13-3878E865E739}" name="Colonne1" dataDxfId="85">
+    <tableColumn id="14" xr3:uid="{5EC3AB1E-6357-4CE8-9EB9-BB86576C8978}" name="Partie Question précédente" dataDxfId="89"/>
+    <tableColumn id="15" xr3:uid="{E33DDF1F-1428-4C1F-8CFD-BD7106ABC652}" name="Informations complémentaires pour cette question" dataDxfId="88"/>
+    <tableColumn id="18" xr3:uid="{80002343-FA5C-4F38-8A13-3878E865E739}" name="Colonne1" dataDxfId="87">
       <calculatedColumnFormula>IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4165,29 +4176,29 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D498CD96-8F17-48ED-95BB-811800C7677A}" name="Tableau4" displayName="Tableau4" ref="A1:R15" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83" tableBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D498CD96-8F17-48ED-95BB-811800C7677A}" name="Tableau4" displayName="Tableau4" ref="A1:R15" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
   <autoFilter ref="A1:R15" xr:uid="{D498CD96-8F17-48ED-95BB-811800C7677A}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{AC85DB3B-7F49-4D88-AB3F-0B08B35B2878}" name="Id Question" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{CDDA87DB-08A6-4D69-9464-DEBF2B158877}" name="Question de la page" dataDxfId="79"/>
-    <tableColumn id="17" xr3:uid="{C7BF0787-EF73-4FA6-B4A1-7558CC6CC31C}" name="Question en anglais" dataDxfId="78"/>
-    <tableColumn id="16" xr3:uid="{19330D64-6D37-4433-89D2-A1AED35DEF1C}" name="Type de question" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{D0ABD5A1-8CA5-4A14-8791-E65B297290B6}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{CF08C9FA-3F4C-4A30-91F9-B6B2979EA1A9}" name="Noms photos (ex: img.png)" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{A8DE461B-048D-4A07-AE1D-AD1A16C66996}" name="Pictogrammes" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{30AAB8F3-B542-479D-92BB-5AE29A36BE4C}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{B2875827-3862-4896-92B0-F8E5DCED9D74}" name="Question suivante si Oui" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{B462AE07-42C9-40A6-9D78-5F2D0FA1A03B}" name="Partie Question suivante si Oui" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{5F3DA5F3-6E85-4044-833E-9A8FDAD1DE0A}" name="Id Question suivante si Non" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{8404C208-3A08-4BC8-92EC-98D282B4284C}" name="Questions suivante si Non" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{9A15C033-CB46-4F26-9733-896EBBE4D13E}" name="Partie Question suivante si Non" dataDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{C976DE79-77B3-428E-BCE3-553A58B78C79}" name="Id Question précédente" dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{88CFD583-93AA-4806-A37A-74AC0931A052}" name="Question précédente" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{AC85DB3B-7F49-4D88-AB3F-0B08B35B2878}" name="Id Question" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{CDDA87DB-08A6-4D69-9464-DEBF2B158877}" name="Question de la page" dataDxfId="81"/>
+    <tableColumn id="17" xr3:uid="{C7BF0787-EF73-4FA6-B4A1-7558CC6CC31C}" name="Question en anglais" dataDxfId="80"/>
+    <tableColumn id="16" xr3:uid="{19330D64-6D37-4433-89D2-A1AED35DEF1C}" name="Type de question" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{D0ABD5A1-8CA5-4A14-8791-E65B297290B6}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{CF08C9FA-3F4C-4A30-91F9-B6B2979EA1A9}" name="Noms photos (ex: img.png)" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{A8DE461B-048D-4A07-AE1D-AD1A16C66996}" name="Pictogrammes" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{30AAB8F3-B542-479D-92BB-5AE29A36BE4C}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{B2875827-3862-4896-92B0-F8E5DCED9D74}" name="Question suivante si Oui" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{B462AE07-42C9-40A6-9D78-5F2D0FA1A03B}" name="Partie Question suivante si Oui" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{5F3DA5F3-6E85-4044-833E-9A8FDAD1DE0A}" name="Id Question suivante si Non" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{8404C208-3A08-4BC8-92EC-98D282B4284C}" name="Questions suivante si Non" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{9A15C033-CB46-4F26-9733-896EBBE4D13E}" name="Partie Question suivante si Non" dataDxfId="70"/>
+    <tableColumn id="12" xr3:uid="{C976DE79-77B3-428E-BCE3-553A58B78C79}" name="Id Question précédente" dataDxfId="69"/>
+    <tableColumn id="13" xr3:uid="{88CFD583-93AA-4806-A37A-74AC0931A052}" name="Question précédente" dataDxfId="68">
       <calculatedColumnFormula>VLOOKUP(N2,$A$1:$B$15,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{ADE04D74-63F9-4369-85AC-B46DB6707F03}" name="Partie Question précédente" dataDxfId="65"/>
-    <tableColumn id="15" xr3:uid="{A253B977-9220-4F91-BBAE-C0567C6E4972}" name="Informations complémentaires pour cette question" dataDxfId="64"/>
-    <tableColumn id="18" xr3:uid="{5168C6E8-B03E-4FCA-A357-105BA4F54C0D}" name="Colonne1" dataDxfId="63">
+    <tableColumn id="14" xr3:uid="{ADE04D74-63F9-4369-85AC-B46DB6707F03}" name="Partie Question précédente" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{A253B977-9220-4F91-BBAE-C0567C6E4972}" name="Informations complémentaires pour cette question" dataDxfId="66"/>
+    <tableColumn id="18" xr3:uid="{5168C6E8-B03E-4FCA-A357-105BA4F54C0D}" name="Colonne1" dataDxfId="65">
       <calculatedColumnFormula>IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4196,31 +4207,31 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{291D49DF-DD51-4878-8C59-4DA9E822C9B9}" name="Tableau5" displayName="Tableau5" ref="A1:R9" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{291D49DF-DD51-4878-8C59-4DA9E822C9B9}" name="Tableau5" displayName="Tableau5" ref="A1:R9" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61">
   <autoFilter ref="A1:R9" xr:uid="{291D49DF-DD51-4878-8C59-4DA9E822C9B9}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0CB98829-58A8-488D-9961-4B69DEB86AAB}" name="Id Question" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{39598F62-CD87-49A5-9198-3BCAF6FDC90E}" name="Question de la page" dataDxfId="57"/>
-    <tableColumn id="17" xr3:uid="{BC1EC557-B8E2-4E7B-8353-96823C49E335}" name="Question en anglais" dataDxfId="56"/>
-    <tableColumn id="16" xr3:uid="{3FB226AA-B259-45DA-AFEA-F2D0C845483F}" name="Type de question" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{F3B34FAF-F1E1-47E4-B8E8-1FE8CCEBC07E}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{44977646-65CE-49DC-9F70-DC0DDDDEF217}" name="Noms photos (ex: img.png)" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{07390D1E-25FB-42FB-9948-566F0E65F83C}" name="Pictogrammes" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{F73D95E2-9264-46A7-BF03-998507A32975}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{2354E2A6-8EA5-45D0-8DB5-D85ECD5114B6}" name="Question suivante si Oui" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{C120BECF-478B-40AD-BFB4-6C6030AC7D30}" name="Partie Question suivante si Oui" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{32EF6BC5-208D-450E-8347-12C1290BB0A9}" name="Id Question suivante si Non" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{39BC0D2F-20C9-41E7-B8C3-E51BE9AE25D3}" name="Questions suivante si Non" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{0CB98829-58A8-488D-9961-4B69DEB86AAB}" name="Id Question" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{39598F62-CD87-49A5-9198-3BCAF6FDC90E}" name="Question de la page" dataDxfId="59"/>
+    <tableColumn id="17" xr3:uid="{BC1EC557-B8E2-4E7B-8353-96823C49E335}" name="Question en anglais" dataDxfId="58"/>
+    <tableColumn id="16" xr3:uid="{3FB226AA-B259-45DA-AFEA-F2D0C845483F}" name="Type de question" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{F3B34FAF-F1E1-47E4-B8E8-1FE8CCEBC07E}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{44977646-65CE-49DC-9F70-DC0DDDDEF217}" name="Noms photos (ex: img.png)" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{07390D1E-25FB-42FB-9948-566F0E65F83C}" name="Pictogrammes" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{F73D95E2-9264-46A7-BF03-998507A32975}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{2354E2A6-8EA5-45D0-8DB5-D85ECD5114B6}" name="Question suivante si Oui" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{C120BECF-478B-40AD-BFB4-6C6030AC7D30}" name="Partie Question suivante si Oui" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{32EF6BC5-208D-450E-8347-12C1290BB0A9}" name="Id Question suivante si Non" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{39BC0D2F-20C9-41E7-B8C3-E51BE9AE25D3}" name="Questions suivante si Non" dataDxfId="49">
       <calculatedColumnFormula>VLOOKUP(K2,$A$1:$B$15,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A97B6CD2-31B2-4031-9A11-A2F2EE5F65A2}" name="Partie Question suivante si Non" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{7D2BFDB3-D873-49A1-9F31-A9C3EC604058}" name="Id Question précédente" dataDxfId="45"/>
-    <tableColumn id="13" xr3:uid="{AF21C716-8001-4771-BD55-B6CCB6BD7DEE}" name="Question précédente" dataDxfId="44">
+    <tableColumn id="11" xr3:uid="{A97B6CD2-31B2-4031-9A11-A2F2EE5F65A2}" name="Partie Question suivante si Non" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{7D2BFDB3-D873-49A1-9F31-A9C3EC604058}" name="Id Question précédente" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{AF21C716-8001-4771-BD55-B6CCB6BD7DEE}" name="Question précédente" dataDxfId="46">
       <calculatedColumnFormula>VLOOKUP(N2,$A$1:$B$15,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{588CBC47-BDA8-43B0-BC94-2F695A2F730A}" name="Partie Question précédente" dataDxfId="43"/>
-    <tableColumn id="15" xr3:uid="{E5CF537D-E02C-4D93-AA51-D15BB0C9D7E0}" name="Informations complémentaires pour cette question" dataDxfId="42"/>
-    <tableColumn id="18" xr3:uid="{E5D66B0C-5213-4516-A067-4208B49F5B66}" name="Colonne1" dataDxfId="41">
+    <tableColumn id="14" xr3:uid="{588CBC47-BDA8-43B0-BC94-2F695A2F730A}" name="Partie Question précédente" dataDxfId="45"/>
+    <tableColumn id="15" xr3:uid="{E5CF537D-E02C-4D93-AA51-D15BB0C9D7E0}" name="Informations complémentaires pour cette question" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{E5D66B0C-5213-4516-A067-4208B49F5B66}" name="Colonne1" dataDxfId="43">
       <calculatedColumnFormula>IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4229,29 +4240,29 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DD1D5BC8-AD35-4D6B-BE01-E92D2660B90C}" name="Tableau7" displayName="Tableau7" ref="A1:R17" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DD1D5BC8-AD35-4D6B-BE01-E92D2660B90C}" name="Tableau7" displayName="Tableau7" ref="A1:R17" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
   <autoFilter ref="A1:R17" xr:uid="{DD1D5BC8-AD35-4D6B-BE01-E92D2660B90C}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{4067B178-C950-40B5-B2C2-0B2DBB2EF042}" name="Id Question" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{3EDC7604-E377-47E7-BB13-4C66D8EA2626}" name="Question de la page" dataDxfId="35"/>
-    <tableColumn id="17" xr3:uid="{05B61F68-0A28-4375-A7E2-212C6B3D3BF5}" name="Question en anglais" dataDxfId="34"/>
-    <tableColumn id="16" xr3:uid="{23361123-86ED-404C-A565-2395A324D7E6}" name="Type de question" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{31FD0A19-ABA9-4AB8-B761-7EA12CF61A56}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{11DB41AE-712C-494C-8AEC-B69778939299}" name="Noms photos (ex: img.png)" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{55673899-1E9A-4EAB-BCA3-7F0184023C09}" name="Pictogrammes" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{35E27E0D-2D38-448E-8003-D416E0C2BB12}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{D4D6CA08-688A-4B8D-B7C0-8C65DA4FB43A}" name="Question suivante si Oui" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{0BFA8EE3-922E-49D4-9971-AC7DCECDBA8E}" name="Partie Question suivante si Oui" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{EBB929EE-48FF-4B98-B37C-59F318A267A5}" name="Id Question suivante si Non" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{8A08C933-48DF-4F8C-8B93-9D3FE764524C}" name="Questions suivante si Non" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{6BE2F351-0937-44CF-B583-F5639F2FDD6E}" name="Partie Question suivante si Non" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{C5123792-9E0A-41F0-8B61-03B2CA7BD12C}" name="Id Question précédente" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{33BD2489-FE52-4C5D-A37B-86998D64855F}" name="Question précédente" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{4067B178-C950-40B5-B2C2-0B2DBB2EF042}" name="Id Question" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{3EDC7604-E377-47E7-BB13-4C66D8EA2626}" name="Question de la page" dataDxfId="37"/>
+    <tableColumn id="17" xr3:uid="{05B61F68-0A28-4375-A7E2-212C6B3D3BF5}" name="Question en anglais" dataDxfId="36"/>
+    <tableColumn id="16" xr3:uid="{23361123-86ED-404C-A565-2395A324D7E6}" name="Type de question" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{31FD0A19-ABA9-4AB8-B761-7EA12CF61A56}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{11DB41AE-712C-494C-8AEC-B69778939299}" name="Noms photos (ex: img.png)" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{55673899-1E9A-4EAB-BCA3-7F0184023C09}" name="Pictogrammes" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{35E27E0D-2D38-448E-8003-D416E0C2BB12}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{D4D6CA08-688A-4B8D-B7C0-8C65DA4FB43A}" name="Question suivante si Oui" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{0BFA8EE3-922E-49D4-9971-AC7DCECDBA8E}" name="Partie Question suivante si Oui" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{EBB929EE-48FF-4B98-B37C-59F318A267A5}" name="Id Question suivante si Non" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{8A08C933-48DF-4F8C-8B93-9D3FE764524C}" name="Questions suivante si Non" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{6BE2F351-0937-44CF-B583-F5639F2FDD6E}" name="Partie Question suivante si Non" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{C5123792-9E0A-41F0-8B61-03B2CA7BD12C}" name="Id Question précédente" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{33BD2489-FE52-4C5D-A37B-86998D64855F}" name="Question précédente" dataDxfId="24">
       <calculatedColumnFormula>VLOOKUP(N2,$A$1:$B$20,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{90ADCE0D-A6E5-4B34-8CE1-5586E9DBA928}" name="Partie Question précédente" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{E97CB95E-0874-482B-AD2C-AE75ABBD769D}" name="Informations complémentaires pour cette question" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{1D0B5F1D-F01F-4860-8691-983EC9FD07AD}" name="Colonne1" dataDxfId="19">
+    <tableColumn id="14" xr3:uid="{90ADCE0D-A6E5-4B34-8CE1-5586E9DBA928}" name="Partie Question précédente" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{E97CB95E-0874-482B-AD2C-AE75ABBD769D}" name="Informations complémentaires pour cette question" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{1D0B5F1D-F01F-4860-8691-983EC9FD07AD}" name="Colonne1" dataDxfId="21">
       <calculatedColumnFormula>IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4579,10 +4590,10 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:O32"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4660,7 +4671,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4698,7 +4709,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>333</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>20</v>
@@ -4716,13 +4727,13 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -4767,25 +4778,25 @@
         <v>24</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
@@ -4810,13 +4821,13 @@
     </row>
     <row r="5" spans="1:18" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="23" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>19</v>
@@ -4834,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
@@ -4843,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>20</v>
@@ -4862,15 +4873,15 @@
         <v>OUI,NON</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>19</v>
@@ -4879,7 +4890,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>22</v>
@@ -4888,25 +4899,25 @@
         <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>20</v>
@@ -4921,10 +4932,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
@@ -4933,7 +4944,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
@@ -4978,10 +4989,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
@@ -4990,7 +5001,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
@@ -5035,19 +5046,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
@@ -5082,19 +5093,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
@@ -5139,19 +5150,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>22</v>
@@ -5186,10 +5197,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>19</v>
@@ -5207,7 +5218,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>20</v>
@@ -5216,16 +5227,16 @@
         <v>9</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>20</v>
@@ -5240,13 +5251,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>20</v>
@@ -5261,7 +5272,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>20</v>
@@ -5286,10 +5297,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>19</v>
@@ -5298,7 +5309,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>22</v>
@@ -5314,7 +5325,7 @@
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L14" s="1" t="str">
         <f>B15</f>
@@ -5340,13 +5351,13 @@
     </row>
     <row r="15" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>19</v>
@@ -5355,13 +5366,13 @@
         <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>B18</f>
@@ -5371,7 +5382,7 @@
         <v>20</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L15" s="1" t="str">
         <f>B16</f>
@@ -5381,7 +5392,7 @@
         <v>20</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O15" s="1" t="str">
         <f>B14&amp;" OU "&amp;B21</f>
@@ -5397,16 +5408,16 @@
     </row>
     <row r="16" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C16" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>20</v>
@@ -5418,7 +5429,7 @@
         <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>B17</f>
@@ -5428,7 +5439,7 @@
         <v>20</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O16" s="1" t="str">
         <f>B15</f>
@@ -5444,16 +5455,16 @@
     </row>
     <row r="17" spans="1:18" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>67</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>20</v>
@@ -5478,7 +5489,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O17" s="1" t="str">
         <f>B16</f>
@@ -5494,22 +5505,22 @@
     </row>
     <row r="18" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>22</v>
@@ -5525,7 +5536,7 @@
         <v>20</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="1" t="str">
         <f>B15</f>
@@ -5544,10 +5555,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>19</v>
@@ -5556,7 +5567,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>22</v>
@@ -5601,10 +5612,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>19</v>
@@ -5613,7 +5624,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>22</v>
@@ -5658,25 +5669,25 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>B15</f>
@@ -5705,19 +5716,19 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>22</v>
@@ -5762,22 +5773,22 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H23" s="1">
         <v>17</v>
@@ -5809,10 +5820,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>19</v>
@@ -5866,13 +5877,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>20</v>
@@ -5881,7 +5892,7 @@
         <v>21</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H25" s="1">
         <v>20</v>
@@ -5913,19 +5924,19 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>22</v>
@@ -5960,13 +5971,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -5981,16 +5992,16 @@
         <v>23</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O27" s="2" t="str">
         <f>B9&amp;" OU "&amp;B11&amp;" OU "&amp;B16</f>
@@ -6006,8 +6017,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E2:P21 A2:C27 E22:K22 M22:P22 E23:P23 E24:K24 M24:P24 E25:P27">
-    <cfRule type="containsBlanks" dxfId="18" priority="1">
+  <conditionalFormatting sqref="A2:C27 E22:K22 M22:P22 E23:P23 E24:K24 M24:P24 E25:P27 E2:P21">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6044,10 +6055,10 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:O32"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6118,22 +6129,22 @@
         <v>12</v>
       </c>
       <c r="N1" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>86</v>
       </c>
       <c r="T1" s="17" t="s">
         <v>13</v>
@@ -6148,7 +6159,7 @@
         <v>16</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -6156,40 +6167,40 @@
         <v>23</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I2" s="12" t="str">
         <f t="shared" ref="I2:I11" si="0">VLOOKUP(H2,$A$1:$B$93,2,FALSE)</f>
         <v>Le JacXson est-il à l'arrêt depuis longtemps ?</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="12" t="str">
         <f>VLOOKUP(K2,$A$1:$B$93,2,FALSE)</f>
         <v>Charger/Changer les batteries. Le problème persiste-t-il ?</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
@@ -6198,13 +6209,13 @@
       <c r="R2" s="23"/>
       <c r="S2" s="23"/>
       <c r="T2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="5" t="str">
@@ -6214,44 +6225,44 @@
     </row>
     <row r="3" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I3" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Le JacXson est-il à l'arrêt depuis longtemps ?</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K3" s="12">
         <v>1</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
@@ -6267,7 +6278,7 @@
         <v>Le niveau de batterie du JacXson et de la télécommande sont-ils suffisants ?</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="5" t="str">
@@ -6277,41 +6288,41 @@
     </row>
     <row r="4" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>L'état des batteries est-il bon ?</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L4" s="12" t="str">
         <f>VLOOKUP(K4,$A$1:$B$93,2,FALSE)</f>
         <v>Le problème est-il récurrent ?</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
@@ -6327,7 +6338,7 @@
         <v>Le niveau de batterie du JacXson et de la télécommande sont-ils suffisants ?</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="5" t="str">
@@ -6337,42 +6348,42 @@
     </row>
     <row r="5" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="C5" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Le problème est-il récurrent ?</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K5" s="12">
         <v>2</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
@@ -6381,14 +6392,14 @@
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
       <c r="T5" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U5" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Le JacXson est-il à l'arrêt depuis longtemps ?</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="5" t="str">
@@ -6398,31 +6409,31 @@
     </row>
     <row r="6" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>D'autres appareils sont en marche à côté du JacXson ?</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K6" s="12">
         <v>2</v>
@@ -6432,7 +6443,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
@@ -6441,14 +6452,14 @@
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Le JacXson est-il à l'arrêt depuis longtemps ?</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="5" t="str">
@@ -6458,41 +6469,41 @@
     </row>
     <row r="7" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>107</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Le problème persiste-t-il lorsque cet autre appareil est éteint ?</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L7" s="12" t="str">
         <f>VLOOKUP(K7,$A$1:$B$93,2,FALSE)</f>
         <v>Le JacXson est bien en marche ?</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
@@ -6501,14 +6512,14 @@
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
       <c r="T7" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U7" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Le problème est-il récurrent ?</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="5" t="str">
@@ -6518,40 +6529,40 @@
     </row>
     <row r="8" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="C8" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Le JacXson est bien en marche ?</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K8" s="12">
         <v>3</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
@@ -6560,14 +6571,14 @@
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
       <c r="T8" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U8" s="12" t="str">
         <f t="shared" si="2"/>
         <v>D'autres appareils sont en marche à côté du JacXson ?</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="5" t="str">
@@ -6577,19 +6588,19 @@
     </row>
     <row r="9" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -6601,17 +6612,17 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L9" s="12" t="str">
         <f>VLOOKUP(K9,$A$1:$B$93,2,FALSE)</f>
         <v>Le mettre en marche. Le problème persiste-t-il ?</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
@@ -6620,14 +6631,14 @@
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
       <c r="T9" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Le problème persiste-t-il lorsque cet autre appareil est éteint ?</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="5" t="str">
@@ -6637,19 +6648,19 @@
     </row>
     <row r="10" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>117</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -6661,16 +6672,16 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K10" s="12">
         <v>4</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
@@ -6679,14 +6690,14 @@
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
       <c r="T10" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U10" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Le JacXson est bien en marche ?</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="5" t="str">
@@ -6699,32 +6710,32 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="E11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>La lumière clignote-t-elle ?</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K11" s="12">
         <v>5</v>
@@ -6734,34 +6745,34 @@
         <v>Sélectionner un mode. Le problème persiste-t-il ?</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N11" s="23">
         <v>6</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P11" s="23">
         <v>3</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R11" s="23">
         <v>7</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="5" t="str">
@@ -6771,19 +6782,19 @@
     </row>
     <row r="12" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
@@ -6791,19 +6802,19 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K12" s="12">
         <v>9</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
@@ -6819,7 +6830,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="5" t="str">
@@ -6832,19 +6843,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>22</v>
@@ -6853,10 +6864,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K13" s="12">
         <v>4</v>
@@ -6866,7 +6877,7 @@
         <v>Les resserrer/connecter</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
@@ -6882,7 +6893,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="5" t="str">
@@ -6895,22 +6906,22 @@
         <v>4</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H14" s="12">
         <v>2</v>
@@ -6920,7 +6931,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -6939,7 +6950,7 @@
         <v>Les câbles de la vérine d'état sont-ils connectés ?</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="5" t="str">
@@ -6952,41 +6963,41 @@
         <v>5</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I15" s="12" t="str">
         <f>VLOOKUP(H15,$A$1:$B$93,2,FALSE)</f>
         <v>La fonction ouverture du JacXson est-elle bloquée ?</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K15" s="12">
         <v>5</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
@@ -7002,7 +7013,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="5" t="str">
@@ -7012,22 +7023,22 @@
     </row>
     <row r="16" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="C16" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>22</v>
@@ -7035,14 +7046,14 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -7058,7 +7069,7 @@
         <v>Sélectionner un mode. Le problème persiste-t-il ?</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="5" t="str">
@@ -7071,19 +7082,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>22</v>
@@ -7096,7 +7107,7 @@
         <v>Identifier la fonction défaillante.</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K17" s="12">
         <v>11</v>
@@ -7106,7 +7117,7 @@
         <v>Une fonction était-elle bloquée avant l'apparition de la LED magenta ?</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -7122,7 +7133,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="5" t="str">
@@ -7135,19 +7146,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>22</v>
@@ -7160,7 +7171,7 @@
         <v>Le désactiver</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K18" s="12">
         <v>8</v>
@@ -7170,7 +7181,7 @@
         <v>Les câbles d'arrêt d'urgence sont-ils bien connectés et en bon état ?</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -7186,7 +7197,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="5" t="str">
@@ -7199,40 +7210,40 @@
         <v>8</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I19" s="12" t="str">
         <f>VLOOKUP(H19,$A$1:$B$93,2,FALSE)</f>
         <v>Y a-t-il une LED clignotante sur la manette ?</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L19" s="12" t="str">
         <f>VLOOKUP(K19,$A$1:$B$93,2,FALSE)</f>
         <v>Les changer</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -7248,7 +7259,7 @@
         <v>Le bouton d'arrêt d'urgence est-il activé ?</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W19" s="1"/>
       <c r="X19" s="5" t="str">
@@ -7258,33 +7269,33 @@
     </row>
     <row r="20" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>153</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I20" s="12" t="str">
         <f>VLOOKUP(H20,$A$1:$B$93,2,FALSE)</f>
         <v>Le problème persiste-t-il ?</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -7303,7 +7314,7 @@
         <v>Les câbles d'arrêt d'urgence sont-ils bien connectés et en bon état ?</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="5" t="str">
@@ -7313,39 +7324,39 @@
     </row>
     <row r="21" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -7361,7 +7372,7 @@
         <v>Les câbles d'arrêt d'urgence sont-ils bien connectés et en bon état ?</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="5" t="str">
@@ -7374,32 +7385,32 @@
         <v>9</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I22" s="12" t="str">
         <f>VLOOKUP(H22,$A$1:$B$93,2,FALSE)</f>
         <v>Le problème persiste-t-il ?</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -7418,7 +7429,7 @@
         <v>Le bouton d'arrêt d'urgence est-il activé ?</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W22" s="1"/>
       <c r="X22" s="5" t="str">
@@ -7428,19 +7439,19 @@
     </row>
     <row r="23" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12" t="s">
@@ -7454,16 +7465,16 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K23" s="12">
         <v>6</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
@@ -7479,7 +7490,7 @@
         <v>Le désactiver</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W23" s="1"/>
       <c r="X23" s="5" t="str">
@@ -7492,16 +7503,16 @@
         <v>10</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="E24" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
@@ -7511,31 +7522,31 @@
         <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K24" s="12">
         <v>1</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P24" s="23">
         <v>1</v>
       </c>
       <c r="Q24" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
@@ -7547,7 +7558,7 @@
         <v>L'IHM affiche un message d'erreur ?</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="5" t="str">
@@ -7560,30 +7571,30 @@
         <v>11</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I25" s="12" t="str">
         <f>VLOOKUP(H25,$A$1:$B$93,2,FALSE)</f>
         <v>Laquelle ?</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K25" s="12">
         <v>12</v>
@@ -7593,7 +7604,7 @@
         <v>Redémarrer le JacXson.</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
@@ -7609,7 +7620,7 @@
         <v>L'IHM affiche un message d'erreur ?</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W25" s="1"/>
       <c r="X25" s="5" t="str">
@@ -7619,19 +7630,19 @@
     </row>
     <row r="26" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="D26" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="E26" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
@@ -7641,25 +7652,25 @@
         <v>25</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K26" s="12">
         <v>1</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N26" s="23" t="s">
         <v>25</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P26" s="23"/>
       <c r="Q26" s="30"/>
@@ -7673,7 +7684,7 @@
         <v>Une fonction était-elle bloquée avant l'apparition de la LED magenta ?</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W26" s="1"/>
       <c r="X26" s="5" t="str">
@@ -7686,30 +7697,30 @@
         <v>12</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I27" s="12" t="str">
         <f>VLOOKUP(H27,$A$1:$B$93,2,FALSE)</f>
         <v>Un élément visuel semble t-il particulièrement abîmé ?</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
@@ -7728,7 +7739,7 @@
         <v>Une fonction était-elle bloquée avant l'apparition de la LED magenta ?</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W27" s="1"/>
       <c r="X27" s="5" t="str">
@@ -7738,33 +7749,33 @@
     </row>
     <row r="28" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>180</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>182</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I28" s="12" t="str">
         <f>VLOOKUP(H28,$A$1:$B$93,2,FALSE)</f>
         <v>Sur quel système se situe cet élément ?</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K28" s="12">
         <v>13</v>
@@ -7774,7 +7785,7 @@
         <v>Le JacXson est-il chargé ?</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
@@ -7790,7 +7801,7 @@
         <v>Redémarrer le JacXson.</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1" t="str">
@@ -7800,19 +7811,19 @@
     </row>
     <row r="29" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>185</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
@@ -7822,39 +7833,39 @@
         <v>25</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K29" s="12">
         <v>1</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N29" s="23" t="s">
         <v>25</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P29" s="23"/>
       <c r="Q29" s="30"/>
       <c r="R29" s="23"/>
       <c r="S29" s="23"/>
       <c r="T29" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="U29" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Un élément visuel semble t-il particulièrement abîmé ?</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W29" s="1"/>
       <c r="X29" s="1" t="str">
@@ -7867,29 +7878,29 @@
         <v>13</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K30" s="12">
         <v>14</v>
@@ -7899,7 +7910,7 @@
         <v>Le charger.</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
@@ -7908,14 +7919,14 @@
       <c r="R30" s="23"/>
       <c r="S30" s="23"/>
       <c r="T30" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="U30" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Un élément visuel semble t-il particulièrement abîmé ?</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1" t="str">
@@ -7928,16 +7939,16 @@
         <v>14</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
@@ -7947,10 +7958,10 @@
         <v>14</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
@@ -7969,7 +7980,7 @@
         <v>Le JacXson est-il chargé ?</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W31" s="1"/>
       <c r="X31" s="1" t="str">
@@ -7982,16 +7993,16 @@
         <v>15</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
@@ -7999,19 +8010,19 @@
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K32" s="12">
         <v>8</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
@@ -8027,7 +8038,7 @@
         <v>Le charger.</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W32" s="1"/>
       <c r="X32" s="1" t="str">
@@ -8037,33 +8048,33 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E2:T2 V2 A2:C32 E3:V12 E13:H13 J13:V13 E14:V23 E24:K24 M24:V24 E25:V25 E26:K26 M26:V26 E27:V28 E29:K29 M29:V29 E30:V32">
-    <cfRule type="containsBlanks" dxfId="16" priority="7">
+  <conditionalFormatting sqref="E2:T2 V2 A2:C32 E13:H13 J13:V13 E24:K24 M24:V24 E25:V25 E26:K26 M26:V26 E27:V28 E29:K29 M29:V29 E14:V23 E3:V12 E30:V32">
+    <cfRule type="containsBlanks" dxfId="18" priority="9">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J32 M2:S32 V2:V32">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="notEqual">
+  <conditionalFormatting sqref="V2:V32 M2:S32 J2:J32">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="notEqual">
       <formula>$M$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="containsBlanks" dxfId="14" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="7">
       <formula>LEN(TRIM(L24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="containsBlanks" dxfId="13" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="5">
       <formula>LEN(TRIM(L26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="containsBlanks" dxfId="12" priority="1">
+    <cfRule type="containsBlanks" dxfId="14" priority="3">
       <formula>LEN(TRIM(L29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="containsBlanks" dxfId="11" priority="6">
+    <cfRule type="containsBlanks" dxfId="13" priority="8">
       <formula>LEN(TRIM(U2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8079,8 +8090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ACAD22-9ABB-4180-84F7-6715F29630FA}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
@@ -8160,7 +8171,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -8168,51 +8179,51 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I2" s="23" t="str">
         <f>VLOOKUP(H2,$A$1:$B$15,2,FALSE)</f>
         <v>Vérifier le BMV. La valeur est-elle OK ?</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K2" s="1">
         <v>5</v>
       </c>
       <c r="L2" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="M2" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="23" t="s">
+      <c r="P2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="R2" s="23" t="str">
         <f t="shared" ref="R2:R13" si="0">IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</f>
@@ -8221,19 +8232,19 @@
     </row>
     <row r="3" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>21</v>
@@ -8247,16 +8258,16 @@
         <v>Vérifier l'état des LEDs. Sont-elles toutes fonctionnelles ?</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N3" s="23">
         <v>1</v>
@@ -8266,10 +8277,10 @@
         <v>Le BMV est-il allumé ?</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R3" s="23" t="str">
         <f t="shared" si="0"/>
@@ -8281,20 +8292,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H4" s="23">
         <v>4</v>
@@ -8304,7 +8315,7 @@
         <v>Lancer l'auto-diagnostic de l'alimentation.</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K4" s="23">
         <v>3</v>
@@ -8314,20 +8325,20 @@
         <v>Les remplacer. De nouvelles LEDs se sont-elles allumées ?</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O4" s="23" t="str">
         <f t="shared" si="2"/>
         <v>Vérifier le BMV. La valeur est-elle OK ?</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R4" s="23" t="str">
         <f t="shared" si="0"/>
@@ -8339,29 +8350,29 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K5" s="23">
         <v>4</v>
@@ -8371,7 +8382,7 @@
         <v>Lancer l'auto-diagnostic de l'alimentation.</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N5" s="23">
         <v>2</v>
@@ -8381,10 +8392,10 @@
         <v>Vérifier l'état des LEDs. Sont-elles toutes fonctionnelles ?</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R5" s="23" t="str">
         <f t="shared" si="0"/>
@@ -8396,33 +8407,33 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I6" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N6" s="23">
         <v>2</v>
@@ -8432,10 +8443,10 @@
         <v>Vérifier l'état des LEDs. Sont-elles toutes fonctionnelles ?</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R6" s="23" t="str">
         <f t="shared" si="0"/>
@@ -8444,19 +8455,19 @@
     </row>
     <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>213</v>
-      </c>
       <c r="C7" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -8464,10 +8475,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K7" s="23">
         <v>5</v>
@@ -8477,7 +8488,7 @@
         <v>Les ventilateurs fonctionnent-ils et les filtres sont-ils propres ?</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N7" s="23">
         <v>4</v>
@@ -8487,7 +8498,7 @@
         <v>Lancer l'auto-diagnostic de l'alimentation.</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="23" t="str">
@@ -8500,22 +8511,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H8" s="23">
         <v>7</v>
@@ -8525,7 +8536,7 @@
         <v>Les batteries sont-elles gonflées ou échauffées ?</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K8" s="23">
         <v>6</v>
@@ -8535,7 +8546,7 @@
         <v>Les remplacer. Le problème persiste-t-il ?</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N8" s="23">
         <v>4</v>
@@ -8545,10 +8556,10 @@
         <v>Lancer l'auto-diagnostic de l'alimentation.</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R8" s="23" t="str">
         <f t="shared" si="0"/>
@@ -8560,22 +8571,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H9" s="23">
         <v>7</v>
@@ -8585,16 +8596,16 @@
         <v>Les batteries sont-elles gonflées ou échauffées ?</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K9" s="1">
         <v>3</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N9" s="23">
         <v>5</v>
@@ -8604,7 +8615,7 @@
         <v>Les ventilateurs fonctionnent-ils et les filtres sont-ils propres ?</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="23" t="str">
@@ -8617,22 +8628,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H10" s="23">
         <v>8</v>
@@ -8642,7 +8653,7 @@
         <v>Les remplacer. Le problème persiste-t-il ?</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K10" s="23">
         <v>9</v>
@@ -8652,7 +8663,7 @@
         <v>Les câbles visibles sont-ils en mauais état ou pincés ?</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N10" s="23">
         <v>6</v>
@@ -8662,7 +8673,7 @@
         <v>Les remplacer. Le problème persiste-t-il ?</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="23" t="str">
@@ -8675,22 +8686,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H11" s="23">
         <v>9</v>
@@ -8700,16 +8711,16 @@
         <v>Les câbles visibles sont-ils en mauais état ou pincés ?</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K11" s="1">
         <v>4</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N11" s="23">
         <v>7</v>
@@ -8719,10 +8730,10 @@
         <v>Les batteries sont-elles gonflées ou échauffées ?</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R11" s="23" t="str">
         <f t="shared" si="0"/>
@@ -8734,20 +8745,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H12" s="23">
         <v>10</v>
@@ -8757,14 +8768,14 @@
         <v>Les remplacer. Le problème persiste-t-il ?</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N12" s="23">
         <v>7</v>
@@ -8774,7 +8785,7 @@
         <v>Les batteries sont-elles gonflées ou échauffées ?</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="23" t="str">
@@ -8787,36 +8798,36 @@
         <v>10</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K13" s="1">
         <v>4</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N13" s="26">
         <v>9</v>
@@ -8826,7 +8837,7 @@
         <v>Les câbles visibles sont-ils en mauais état ou pincés ?</v>
       </c>
       <c r="P13" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="23" t="str">
@@ -8854,17 +8865,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:N2 P2 E3:P13 A2:C13">
-    <cfRule type="containsBlanks" dxfId="10" priority="3">
+    <cfRule type="containsBlanks" dxfId="12" priority="3">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13 M2:M13 P2:P13">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="notEqual">
       <formula>$M$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="10" priority="1">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8880,11 +8891,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A5EC47-33DC-4C33-9E98-BE72FB1369E7}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:O32"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8960,7 +8971,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -8968,19 +8979,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23">
@@ -8991,7 +9002,7 @@
         <v>Lancer l'auto-diagnostic de levage</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K2" s="23">
         <v>2</v>
@@ -9001,16 +9012,16 @@
         <v>Vérifier le bon fonctionnement de chaque axe</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="33" t="str">
@@ -9023,16 +9034,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -9040,10 +9051,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
@@ -9056,7 +9067,7 @@
         <v>Vérifier la plage de levage. La plage est-elle OK ?</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q3" s="23"/>
       <c r="R3" s="23" t="str">
@@ -9069,28 +9080,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="H4" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I4" s="23" t="str">
         <f>VLOOKUP(H4,$A$1:$B$15,2,FALSE)</f>
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
@@ -9103,7 +9114,7 @@
         <v>Vérifier la plage de levage. La plage est-elle OK ?</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="23"/>
       <c r="R4" s="23" t="str">
@@ -9113,19 +9124,19 @@
     </row>
     <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -9133,10 +9144,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K5" s="23">
         <v>4</v>
@@ -9146,7 +9157,7 @@
         <v>Y a-t-il une déformation géométrique du ciseau ?</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N5" s="23">
         <v>3</v>
@@ -9156,7 +9167,7 @@
         <v>Lancer l'auto-diagnostic de levage</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="23"/>
       <c r="R5" s="23" t="str">
@@ -9169,27 +9180,27 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K6" s="23">
         <v>5</v>
@@ -9199,17 +9210,17 @@
         <v>Y a-t-il des bruits anormaux ?</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O6" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="23" t="str">
@@ -9222,19 +9233,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23">
@@ -9245,7 +9256,7 @@
         <v>Le bruit provient-il de la vis de levage ?</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K7" s="23">
         <v>7</v>
@@ -9255,7 +9266,7 @@
         <v>Retirer le soufflet et vérifier l'état de la vis de levage</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N7" s="23">
         <v>4</v>
@@ -9265,7 +9276,7 @@
         <v>Y a-t-il une déformation géométrique du ciseau ?</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23" t="str">
@@ -9278,35 +9289,35 @@
         <v>6</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L8" s="23" t="str">
         <f t="shared" si="2"/>
         <v>Le bruit provient-il de l'ensemble motoréducteur de levage ?</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N8" s="23">
         <v>5</v>
@@ -9316,7 +9327,7 @@
         <v>Y a-t-il des bruits anormaux ?</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="23"/>
       <c r="R8" s="23" t="str">
@@ -9326,38 +9337,38 @@
     </row>
     <row r="9" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>248</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>250</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L9" s="23" t="str">
         <f t="shared" si="2"/>
         <v>Le bruit provient-il du frein de levage ?</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N9" s="23">
         <v>6</v>
@@ -9367,7 +9378,7 @@
         <v>Le bruit provient-il de la vis de levage ?</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="23"/>
       <c r="R9" s="23" t="str">
@@ -9377,28 +9388,28 @@
     </row>
     <row r="10" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>251</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>253</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K10" s="23">
         <v>7</v>
@@ -9408,17 +9419,17 @@
         <v>Retirer le soufflet et vérifier l'état de la vis de levage</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O10" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Le bruit provient-il de l'ensemble motoréducteur de levage ?</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="23"/>
       <c r="R10" s="23" t="str">
@@ -9431,48 +9442,48 @@
         <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>254</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>256</v>
       </c>
       <c r="I11" s="23" t="str">
         <f>VLOOKUP(H11,$A$1:$B$15,2,FALSE)</f>
         <v>Vérifier la présence de paillettes dans la graisse sur la vis de levage.</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="O11" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="M11" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>259</v>
-      </c>
       <c r="P11" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="23"/>
       <c r="R11" s="23" t="str">
@@ -9482,40 +9493,40 @@
     </row>
     <row r="12" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" ref="I12:I13" si="3">VLOOKUP(H12,$A$1:$B$15,2,FALSE)</f>
         <v>Vérifier la présence de fuites sur le réducteur.</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N12" s="23">
         <v>7</v>
@@ -9525,7 +9536,7 @@
         <v>Retirer le soufflet et vérifier l'état de la vis de levage</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q12" s="23"/>
       <c r="R12" s="23" t="str">
@@ -9535,22 +9546,22 @@
     </row>
     <row r="13" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>264</v>
-      </c>
       <c r="D13" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23">
@@ -9561,24 +9572,24 @@
         <v>Les câbles apparents sont-ils bien connnectés et en bon état ?</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K13" s="23"/>
       <c r="L13" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Vérifier la présence de paillettes dans la graisse sur la vis de levage.</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="23"/>
       <c r="R13" s="23" t="str">
@@ -9591,27 +9602,27 @@
         <v>8</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K14" s="23">
         <v>9</v>
@@ -9621,17 +9632,17 @@
         <v>Le problème persiste-t-il après les avoir reconnecté / remplacés ?</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O14" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Vérifier la présence de fuites sur le réducteur.</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="23" t="str">
@@ -9644,36 +9655,36 @@
         <v>9</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K15" s="26">
         <v>3</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N15" s="26">
         <v>8</v>
@@ -9683,7 +9694,7 @@
         <v>Les câbles apparents sont-ils bien connnectés et en bon état ?</v>
       </c>
       <c r="P15" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q15" s="34"/>
       <c r="R15" s="34" t="str">
@@ -9694,17 +9705,17 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:N2 P2 A3:P15">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J15 M2:M15 P2:P15">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="notEqual">
       <formula>$M$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9720,10 +9731,10 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:O32"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9798,7 +9809,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -9806,16 +9817,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -9827,19 +9838,19 @@
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="23"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="str">
@@ -9852,16 +9863,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -9869,10 +9880,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K3" s="1">
         <v>2</v>
@@ -9882,7 +9893,7 @@
         <v>Le resserrement se fait-il correctement sur le stand ?</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>25</v>
@@ -9892,7 +9903,7 @@
         <v>Lancer l'auto-diagnostic de l'ouverture</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="str">
@@ -9905,28 +9916,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I4" s="23" t="str">
         <f>VLOOKUP(H4,$A$1:$B$15,2,FALSE)</f>
         <v>Refaire le point d'origine. Le problème es-il résolu ?</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K4" s="1">
         <v>3</v>
@@ -9936,7 +9947,7 @@
         <v>Le serrage de la frette est-il bon ? (4N.m)</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -9946,7 +9957,7 @@
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="str">
@@ -9956,19 +9967,19 @@
     </row>
     <row r="5" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>274</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>276</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -9976,10 +9987,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
@@ -9989,7 +10000,7 @@
         <v>Le serrage de la frette est-il bon ? (4N.m)</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N5" s="1">
         <v>2</v>
@@ -9999,7 +10010,7 @@
         <v>Le resserrement se fait-il correctement sur le stand ?</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="str">
@@ -10012,20 +10023,20 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H6" s="1">
         <v>5</v>
@@ -10035,7 +10046,7 @@
         <v>Le serrage du pignon sur l'arbre est-il bon ? (60 N.m)</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K6" s="1">
         <v>4</v>
@@ -10045,7 +10056,7 @@
         <v>La resserrer. Le problème est-il résolu ?</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
@@ -10055,7 +10066,7 @@
         <v>Le resserrement se fait-il correctement sur le stand ?</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="str">
@@ -10068,16 +10079,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -10085,10 +10096,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K7" s="1">
         <v>5</v>
@@ -10098,7 +10109,7 @@
         <v>Le serrage du pignon sur l'arbre est-il bon ? (60 N.m)</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N7" s="1">
         <v>3</v>
@@ -10108,7 +10119,7 @@
         <v>Le serrage de la frette est-il bon ? (4N.m)</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="str">
@@ -10121,29 +10132,29 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="K8" s="1">
         <v>6</v>
@@ -10153,7 +10164,7 @@
         <v>Le resserrer. Le problème est-il résolu ?</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N8" s="1">
         <v>4</v>
@@ -10163,7 +10174,7 @@
         <v>La resserrer. Le problème est-il résolu ?</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="str">
@@ -10176,16 +10187,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -10193,17 +10204,17 @@
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N9" s="1">
         <v>5</v>
@@ -10213,7 +10224,7 @@
         <v>Le serrage du pignon sur l'arbre est-il bon ? (60 N.m)</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="str">
@@ -10223,12 +10234,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:P9">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9 M2:M9 P2:P9">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="notEqual">
+  <conditionalFormatting sqref="M2:M9 P2:P9 J2:J9">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="notEqual">
       <formula>$M$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10244,7 +10255,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F22" sqref="F22"/>
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
       <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
@@ -10322,7 +10333,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -10330,16 +10341,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -10351,22 +10362,22 @@
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
       <c r="N2" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R2" s="33" t="str">
         <f t="shared" ref="R2:R17" si="0">IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</f>
@@ -10378,16 +10389,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -10395,10 +10406,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>23</v>
@@ -10408,7 +10419,7 @@
         <v>Une roue est-elle entravée ?</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N3" s="23" t="s">
         <v>25</v>
@@ -10418,7 +10429,7 @@
         <v>Lancer l'auto-diagnostic de roulage.</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q3" s="23"/>
       <c r="R3" s="23" t="str">
@@ -10431,30 +10442,30 @@
         <v>23</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="23" t="str">
         <f>VLOOKUP(H4,$A$1:$B$20,2,FALSE)</f>
         <v>La libérer. Le problème persiste-i-il ?</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K4" s="23">
         <v>2</v>
@@ -10464,7 +10475,7 @@
         <v>Y a-t-il des bruits anormaux ?</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N4" s="23">
         <v>1</v>
@@ -10474,10 +10485,10 @@
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R4" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10486,19 +10497,19 @@
     </row>
     <row r="5" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -10510,16 +10521,16 @@
         <v>Y a-t-il des bruits anormaux ?</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K5" s="23">
         <v>4</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N5" s="23" t="s">
         <v>23</v>
@@ -10529,10 +10540,10 @@
         <v>Une roue est-elle entravée ?</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R5" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10544,16 +10555,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -10565,7 +10576,7 @@
         <v>Le bruit provient-il du réducteur ?</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K6" s="23">
         <v>4</v>
@@ -10575,7 +10586,7 @@
         <v>Vérifier l'état de la bande de roulement des roues</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>23</v>
@@ -10585,7 +10596,7 @@
         <v>Une roue est-elle entravée ?</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="23" t="str">
@@ -10598,37 +10609,37 @@
         <v>3</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L7" s="23" t="str">
         <f t="shared" ref="L7:L9" si="3">VLOOKUP(K7,$A$1:$B$20,2,FALSE)</f>
         <v>Le bruit provient-il du moteur ?</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N7" s="23">
         <v>2</v>
@@ -10638,7 +10649,7 @@
         <v>Y a-t-il des bruits anormaux ?</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23" t="str">
@@ -10648,38 +10659,38 @@
     </row>
     <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L8" s="23" t="str">
         <f t="shared" si="3"/>
         <v>Le bruit provient-il du frein ?</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N8" s="23">
         <v>3</v>
@@ -10689,10 +10700,10 @@
         <v>Le bruit provient-il du réducteur ?</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R8" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10701,28 +10712,28 @@
     </row>
     <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>299</v>
-      </c>
       <c r="C9" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K9" s="23">
         <v>4</v>
@@ -10732,20 +10743,20 @@
         <v>Vérifier l'état de la bande de roulement des roues</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O9" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Le bruit provient-il du moteur ?</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="R9" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10757,39 +10768,39 @@
         <v>4</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>304</v>
-      </c>
       <c r="G10" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I10" s="23" t="str">
         <f>VLOOKUP(H10,$A$1:$B$20,2,FALSE)</f>
         <v>Vérifier le diamètre des roues avant</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N10" s="23">
         <v>2</v>
@@ -10799,10 +10810,10 @@
         <v>Y a-t-il des bruits anormaux ?</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="R10" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10811,42 +10822,42 @@
     </row>
     <row r="11" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="E11" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="G11" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>310</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" ref="I11:I14" si="4">VLOOKUP(H11,$A$1:$B$20,2,FALSE)</f>
         <v>Vérifier la denture de la couronne d'orientation</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N11" s="23">
         <v>4</v>
@@ -10856,10 +10867,10 @@
         <v>Vérifier l'état de la bande de roulement des roues</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R11" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10868,55 +10879,55 @@
     </row>
     <row r="12" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="C12" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>312</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>314</v>
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" si="4"/>
         <v>Vérifier l'alignement des roues avec l'axe de roulage</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Vérifier le diamètre des roues avant</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R12" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10925,23 +10936,23 @@
     </row>
     <row r="13" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>316</v>
-      </c>
       <c r="C13" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H13" s="23">
         <v>5</v>
@@ -10951,27 +10962,27 @@
         <v>Les câbles sont-ils bien connectés et en bon état ?</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K13" s="23"/>
       <c r="L13" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Vérifier la denture de la couronne d'orientation</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="R13" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10983,20 +10994,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H14" s="23">
         <v>7</v>
@@ -11006,7 +11017,7 @@
         <v>Le 0 des roues est-il bon ?</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K14" s="23">
         <v>6</v>
@@ -11016,17 +11027,17 @@
         <v>Le problème persiste-t-il après les avoir remplacés et/ou reconnectés ?</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O14" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Vérifier l'alignement des roues avec l'axe de roulage</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="23" t="str">
@@ -11039,36 +11050,36 @@
         <v>6</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K15" s="23">
         <v>2</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N15" s="23">
         <v>5</v>
@@ -11078,10 +11089,10 @@
         <v>Les câbles sont-ils bien connectés et en bon état ?</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="R15" s="23" t="str">
         <f t="shared" si="0"/>
@@ -11093,25 +11104,25 @@
         <v>7</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K16" s="23">
         <v>8</v>
@@ -11121,7 +11132,7 @@
         <v>Le refaire. Le problème persiste-t-il ?</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N16" s="23">
         <v>5</v>
@@ -11131,10 +11142,10 @@
         <v>Les câbles sont-ils bien connectés et en bon état ?</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R16" s="23" t="str">
         <f t="shared" si="0"/>
@@ -11146,34 +11157,34 @@
         <v>8</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K17" s="23">
         <v>3</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N17" s="23">
         <v>7</v>
@@ -11183,10 +11194,10 @@
         <v>Le 0 des roues est-il bon ?</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="R17" s="34" t="str">
         <f t="shared" si="0"/>
@@ -11196,17 +11207,17 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:N2 P2 A3:P17">
-    <cfRule type="containsBlanks" dxfId="2" priority="4">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J17 M2:M17 P2:P17">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="notEqual">
       <formula>$M$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11218,26 +11229,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5f4be8df-f6a0-445b-95af-5b717b830d35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9b43bb5e-edaa-4965-9b14-9c82ef6ed6bf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CE99D18DCC2B846ADB77BBAE2552CD5" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="1b683f58663e5b88dd6e951e404255e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5f4be8df-f6a0-445b-95af-5b717b830d35" xmlns:ns3="9b43bb5e-edaa-4965-9b14-9c82ef6ed6bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38ee64b648831531c1463e29a6c6a75d" ns2:_="" ns3:_="">
     <xsd:import namespace="5f4be8df-f6a0-445b-95af-5b717b830d35"/>
@@ -11432,26 +11423,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8751184-7F33-42E1-A7E1-499B37B6ED00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5f4be8df-f6a0-445b-95af-5b717b830d35"/>
-    <ds:schemaRef ds:uri="9b43bb5e-edaa-4965-9b14-9c82ef6ed6bf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAEBB686-1AC0-4469-8D2F-FA6A0968E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5f4be8df-f6a0-445b-95af-5b717b830d35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9b43bb5e-edaa-4965-9b14-9c82ef6ed6bf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACDA84EA-6FF2-4E9D-A8B2-9B1D6AC08861}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11468,4 +11460,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAEBB686-1AC0-4469-8D2F-FA6A0968E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8751184-7F33-42E1-A7E1-499B37B6ED00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5f4be8df-f6a0-445b-95af-5b717b830d35"/>
+    <ds:schemaRef ds:uri="9b43bb5e-edaa-4965-9b14-9c82ef6ed6bf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PMI_eXcent_App/static/docs/Base_de_donnees_pages_de_questions.xlsx
+++ b/PMI_eXcent_App/static/docs/Base_de_donnees_pages_de_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33787\OneDrive\Bureau\Aero 5\PMI\Site\Django_PMI_Project\Django_Project_eXcent\PMI_eXcent_App\static\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD11A5A-65D5-4431-ABA1-357D20728E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D0DA87-F701-406F-BB4F-AF640271A437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F14E2F11-AA59-4018-A733-B08A5111FCD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{F14E2F11-AA59-4018-A733-B08A5111FCD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Mise en sécurité" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="334">
   <si>
     <t>Id Question</t>
   </si>
@@ -279,9 +279,6 @@
     <t>OK,NOK</t>
   </si>
   <si>
-    <t>photo zone balisée</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -1192,6 +1189,9 @@
   </si>
   <si>
     <t>Demander à quelqu'un de formé sur le JacXson de prendre le relais</t>
+  </si>
+  <si>
+    <t>Résolu</t>
   </si>
 </sst>
 </file>
@@ -1671,21 +1671,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="158">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD85B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="156">
     <dxf>
       <fill>
         <patternFill>
@@ -4079,27 +4065,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25DED847-7F62-4A83-88B5-582F143FAF01}" name="Tableau1" displayName="Tableau1" ref="A1:R27" totalsRowShown="0" headerRowDxfId="157" dataDxfId="155" headerRowBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25DED847-7F62-4A83-88B5-582F143FAF01}" name="Tableau1" displayName="Tableau1" ref="A1:R27" totalsRowShown="0" headerRowDxfId="155" dataDxfId="153" headerRowBorderDxfId="154">
   <autoFilter ref="A1:R27" xr:uid="{25DED847-7F62-4A83-88B5-582F143FAF01}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{BB6BD673-11DF-45BD-91CF-A445ED364064}" name="Id Question" dataDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{0F6911BA-C831-4381-9050-69F4D0EB0E50}" name="Question de la page" dataDxfId="153"/>
-    <tableColumn id="18" xr3:uid="{23E073B4-AE19-4220-94B7-F94DD1B5121C}" name="Question en anglais" dataDxfId="152"/>
-    <tableColumn id="17" xr3:uid="{B5BDB423-D63D-48F2-B6A4-60B94D254C53}" name="Type de question" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{A03EFEF8-5102-4B9B-86D8-736D224F4E81}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{109FA2AD-E875-4904-8BDC-3AFD9429DE44}" name="Noms photos (ex: img.png)" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{45E63A64-78F8-4AAB-A22F-6AD4291F722C}" name="Pictogrammes" dataDxfId="148"/>
-    <tableColumn id="6" xr3:uid="{EAF2F072-57D6-4685-899E-4A6CC2E28358}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="147"/>
-    <tableColumn id="7" xr3:uid="{5E2E353B-EE56-4BDA-B79A-3E10401F518E}" name="Question suivante si Oui" dataDxfId="146"/>
-    <tableColumn id="8" xr3:uid="{C35937AA-A15E-4319-88E5-2C3C6DFF5457}" name="Partie Question suivante si Oui" dataDxfId="145"/>
-    <tableColumn id="9" xr3:uid="{E48AB6E6-7180-45B5-8631-6AB070D4C5FE}" name="Id Question suivante si Non" dataDxfId="144"/>
-    <tableColumn id="10" xr3:uid="{9DBE0E54-1E3E-4B25-87FA-16ADE4B407CB}" name="Questions suivante si Non" dataDxfId="143"/>
-    <tableColumn id="11" xr3:uid="{4F8C9C3C-C21F-4B80-B2BD-9B6D6CC6FEBA}" name="Partie Question suivante si Non" dataDxfId="142"/>
-    <tableColumn id="12" xr3:uid="{47C1ED25-4B47-4B29-B6F2-B290B7C2F369}" name="Id Question précédente" dataDxfId="141"/>
-    <tableColumn id="13" xr3:uid="{8B2B55D3-A9C3-455E-9BD6-9E5106EFBB42}" name="Question précédente" dataDxfId="140"/>
-    <tableColumn id="14" xr3:uid="{C1F0DD37-FC8D-4D0C-8BB2-27FC614FB06A}" name="Partie Question précédente" dataDxfId="139"/>
-    <tableColumn id="15" xr3:uid="{4DAA0197-BF35-42AC-8086-8FF14E7F4873}" name="Informations complémentaires pour cette question" dataDxfId="138"/>
-    <tableColumn id="16" xr3:uid="{AE5C27BC-4B90-4D6D-A4D3-787982526DA6}" name="Colonne1" dataDxfId="137">
+    <tableColumn id="1" xr3:uid="{BB6BD673-11DF-45BD-91CF-A445ED364064}" name="Id Question" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{0F6911BA-C831-4381-9050-69F4D0EB0E50}" name="Question de la page" dataDxfId="151"/>
+    <tableColumn id="18" xr3:uid="{23E073B4-AE19-4220-94B7-F94DD1B5121C}" name="Question en anglais" dataDxfId="150"/>
+    <tableColumn id="17" xr3:uid="{B5BDB423-D63D-48F2-B6A4-60B94D254C53}" name="Type de question" dataDxfId="149"/>
+    <tableColumn id="3" xr3:uid="{A03EFEF8-5102-4B9B-86D8-736D224F4E81}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="148"/>
+    <tableColumn id="4" xr3:uid="{109FA2AD-E875-4904-8BDC-3AFD9429DE44}" name="Noms photos (ex: img.png)" dataDxfId="147"/>
+    <tableColumn id="5" xr3:uid="{45E63A64-78F8-4AAB-A22F-6AD4291F722C}" name="Pictogrammes" dataDxfId="146"/>
+    <tableColumn id="6" xr3:uid="{EAF2F072-57D6-4685-899E-4A6CC2E28358}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="145"/>
+    <tableColumn id="7" xr3:uid="{5E2E353B-EE56-4BDA-B79A-3E10401F518E}" name="Question suivante si Oui" dataDxfId="144"/>
+    <tableColumn id="8" xr3:uid="{C35937AA-A15E-4319-88E5-2C3C6DFF5457}" name="Partie Question suivante si Oui" dataDxfId="143"/>
+    <tableColumn id="9" xr3:uid="{E48AB6E6-7180-45B5-8631-6AB070D4C5FE}" name="Id Question suivante si Non" dataDxfId="142"/>
+    <tableColumn id="10" xr3:uid="{9DBE0E54-1E3E-4B25-87FA-16ADE4B407CB}" name="Questions suivante si Non" dataDxfId="141"/>
+    <tableColumn id="11" xr3:uid="{4F8C9C3C-C21F-4B80-B2BD-9B6D6CC6FEBA}" name="Partie Question suivante si Non" dataDxfId="140"/>
+    <tableColumn id="12" xr3:uid="{47C1ED25-4B47-4B29-B6F2-B290B7C2F369}" name="Id Question précédente" dataDxfId="139"/>
+    <tableColumn id="13" xr3:uid="{8B2B55D3-A9C3-455E-9BD6-9E5106EFBB42}" name="Question précédente" dataDxfId="138"/>
+    <tableColumn id="14" xr3:uid="{C1F0DD37-FC8D-4D0C-8BB2-27FC614FB06A}" name="Partie Question précédente" dataDxfId="137"/>
+    <tableColumn id="15" xr3:uid="{4DAA0197-BF35-42AC-8086-8FF14E7F4873}" name="Informations complémentaires pour cette question" dataDxfId="136"/>
+    <tableColumn id="16" xr3:uid="{AE5C27BC-4B90-4D6D-A4D3-787982526DA6}" name="Colonne1" dataDxfId="135">
       <calculatedColumnFormula>IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4108,35 +4094,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{722A7233-30BC-468E-B87F-D094660B369D}" name="Tableau2" displayName="Tableau2" ref="A1:X32" totalsRowShown="0" headerRowDxfId="136" dataDxfId="134" headerRowBorderDxfId="135" tableBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{722A7233-30BC-468E-B87F-D094660B369D}" name="Tableau2" displayName="Tableau2" ref="A1:X32" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131">
   <autoFilter ref="A1:X32" xr:uid="{722A7233-30BC-468E-B87F-D094660B369D}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{7D10BA06-D09C-4CE0-8CFC-140E4B15DA6C}" name="Id Question" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{3F8AF28B-7050-4046-88EC-36DA1AE8DB70}" name="Question de la page" dataDxfId="131"/>
-    <tableColumn id="24" xr3:uid="{6FE327E5-623A-4AAD-8492-B52CDB00A518}" name="Question en anglais" dataDxfId="130"/>
-    <tableColumn id="16" xr3:uid="{D68406F9-CC94-4090-BC10-B13A68F8B946}" name="Type de question" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{61CA71A5-630A-48A0-B6AA-225E63CD2E37}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{EEBCE150-B656-4B0C-98E6-F36D24B3837E}" name="Noms photos (ex: img.png)" dataDxfId="127"/>
-    <tableColumn id="5" xr3:uid="{3AF343B3-57DE-4721-AA3B-8451F3F78DA2}" name="Pictogrammes" dataDxfId="126"/>
-    <tableColumn id="6" xr3:uid="{ACB1351D-F07D-43D1-A4FF-972E866BF484}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="125"/>
-    <tableColumn id="7" xr3:uid="{7C180A2A-256F-4FD5-AB1F-5560250DFB58}" name="Question suivante si Oui" dataDxfId="124"/>
-    <tableColumn id="8" xr3:uid="{E372938C-B485-4090-AE5E-98DC3CA0C327}" name="Partie Question suivante si Oui" dataDxfId="123"/>
-    <tableColumn id="9" xr3:uid="{8419045A-C1CF-44EB-8512-977D6862CCC1}" name="Id Question suivante si Non" dataDxfId="122"/>
-    <tableColumn id="10" xr3:uid="{B393FC4D-273E-49CA-BA0A-26A05723466B}" name="Questions suivante si Non" dataDxfId="121">
+    <tableColumn id="1" xr3:uid="{7D10BA06-D09C-4CE0-8CFC-140E4B15DA6C}" name="Id Question" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{3F8AF28B-7050-4046-88EC-36DA1AE8DB70}" name="Question de la page" dataDxfId="129"/>
+    <tableColumn id="24" xr3:uid="{6FE327E5-623A-4AAD-8492-B52CDB00A518}" name="Question en anglais" dataDxfId="128"/>
+    <tableColumn id="16" xr3:uid="{D68406F9-CC94-4090-BC10-B13A68F8B946}" name="Type de question" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{61CA71A5-630A-48A0-B6AA-225E63CD2E37}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{EEBCE150-B656-4B0C-98E6-F36D24B3837E}" name="Noms photos (ex: img.png)" dataDxfId="125"/>
+    <tableColumn id="5" xr3:uid="{3AF343B3-57DE-4721-AA3B-8451F3F78DA2}" name="Pictogrammes" dataDxfId="124"/>
+    <tableColumn id="6" xr3:uid="{ACB1351D-F07D-43D1-A4FF-972E866BF484}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="123"/>
+    <tableColumn id="7" xr3:uid="{7C180A2A-256F-4FD5-AB1F-5560250DFB58}" name="Question suivante si Oui" dataDxfId="122"/>
+    <tableColumn id="8" xr3:uid="{E372938C-B485-4090-AE5E-98DC3CA0C327}" name="Partie Question suivante si Oui" dataDxfId="121"/>
+    <tableColumn id="9" xr3:uid="{8419045A-C1CF-44EB-8512-977D6862CCC1}" name="Id Question suivante si Non" dataDxfId="120"/>
+    <tableColumn id="10" xr3:uid="{B393FC4D-273E-49CA-BA0A-26A05723466B}" name="Questions suivante si Non" dataDxfId="119">
       <calculatedColumnFormula>VLOOKUP(K2,A1:B93,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9E7B5206-1177-471B-A2B1-F9D5D9E9C13D}" name="Partie Question suivante si Non" dataDxfId="120"/>
-    <tableColumn id="17" xr3:uid="{FD4D75CA-8C4F-45F7-A71A-6D8C2186DC51}" name="Id Question si Réponse 3" dataDxfId="119"/>
-    <tableColumn id="22" xr3:uid="{C948FD7C-47FE-443F-9E32-16B448A25C33}" name="Partie Question si Réponse 3" dataDxfId="118"/>
-    <tableColumn id="21" xr3:uid="{E77AC701-5F6A-4D79-B7D2-931688B49263}" name="Id Question si Réponse 4" dataDxfId="117"/>
-    <tableColumn id="20" xr3:uid="{3BAA5005-1A10-41E5-B122-F471CFDAE274}" name="Partie Question suivante si Réponse 4" dataDxfId="116"/>
-    <tableColumn id="26" xr3:uid="{510F6965-033A-473E-ABF6-EE83006AB90B}" name="Id Question si Réponse 5" dataDxfId="115"/>
-    <tableColumn id="25" xr3:uid="{222BF05F-A9BD-4091-B972-611178642B18}" name="Partie Question suivante si Réponse 5" dataDxfId="114"/>
-    <tableColumn id="12" xr3:uid="{5A920D4C-1BBB-40F6-ADD8-AC9BAC12473D}" name="Id Question précédente" dataDxfId="113"/>
-    <tableColumn id="13" xr3:uid="{AABCAFD8-43B6-4BCF-A0AA-E7E4FBDD0A9D}" name="Question précédente" dataDxfId="112"/>
-    <tableColumn id="14" xr3:uid="{716F124B-253B-4040-B6C2-7A06918D2314}" name="Partie Question précédente" dataDxfId="111"/>
-    <tableColumn id="15" xr3:uid="{F3AD2111-39B2-4221-86A2-428278D7A6C1}" name="Informations complémentaires pour cette question" dataDxfId="110"/>
-    <tableColumn id="18" xr3:uid="{B9D5F273-41C4-4C3E-8F49-A5FE4236A72E}" name="Colonne1" dataDxfId="109">
+    <tableColumn id="11" xr3:uid="{9E7B5206-1177-471B-A2B1-F9D5D9E9C13D}" name="Partie Question suivante si Non" dataDxfId="118"/>
+    <tableColumn id="17" xr3:uid="{FD4D75CA-8C4F-45F7-A71A-6D8C2186DC51}" name="Id Question si Réponse 3" dataDxfId="117"/>
+    <tableColumn id="22" xr3:uid="{C948FD7C-47FE-443F-9E32-16B448A25C33}" name="Partie Question si Réponse 3" dataDxfId="116"/>
+    <tableColumn id="21" xr3:uid="{E77AC701-5F6A-4D79-B7D2-931688B49263}" name="Id Question si Réponse 4" dataDxfId="115"/>
+    <tableColumn id="20" xr3:uid="{3BAA5005-1A10-41E5-B122-F471CFDAE274}" name="Partie Question suivante si Réponse 4" dataDxfId="114"/>
+    <tableColumn id="26" xr3:uid="{510F6965-033A-473E-ABF6-EE83006AB90B}" name="Id Question si Réponse 5" dataDxfId="113"/>
+    <tableColumn id="25" xr3:uid="{222BF05F-A9BD-4091-B972-611178642B18}" name="Partie Question suivante si Réponse 5" dataDxfId="112"/>
+    <tableColumn id="12" xr3:uid="{5A920D4C-1BBB-40F6-ADD8-AC9BAC12473D}" name="Id Question précédente" dataDxfId="111"/>
+    <tableColumn id="13" xr3:uid="{AABCAFD8-43B6-4BCF-A0AA-E7E4FBDD0A9D}" name="Question précédente" dataDxfId="110"/>
+    <tableColumn id="14" xr3:uid="{716F124B-253B-4040-B6C2-7A06918D2314}" name="Partie Question précédente" dataDxfId="109"/>
+    <tableColumn id="15" xr3:uid="{F3AD2111-39B2-4221-86A2-428278D7A6C1}" name="Informations complémentaires pour cette question" dataDxfId="108"/>
+    <tableColumn id="18" xr3:uid="{B9D5F273-41C4-4C3E-8F49-A5FE4236A72E}" name="Colonne1" dataDxfId="107">
       <calculatedColumnFormula>IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4145,29 +4131,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8587781F-AA83-4B6F-854A-B42669E9F9E9}" name="Tableau3" displayName="Tableau3" ref="A1:R13" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8587781F-AA83-4B6F-854A-B42669E9F9E9}" name="Tableau3" displayName="Tableau3" ref="A1:R13" totalsRowShown="0" headerRowDxfId="106" dataDxfId="104" headerRowBorderDxfId="105" tableBorderDxfId="103">
   <autoFilter ref="A1:R13" xr:uid="{8587781F-AA83-4B6F-854A-B42669E9F9E9}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{3ABA099A-E774-4BEC-9982-663CE507F040}" name="Id Question" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{0F52FA11-27BB-45F3-AD64-38B44B370D11}" name="Question de la page" dataDxfId="103"/>
-    <tableColumn id="17" xr3:uid="{F55230D8-17FD-4514-9E16-640382D180B5}" name="Question en anglais" dataDxfId="102"/>
-    <tableColumn id="16" xr3:uid="{DB033608-E3CD-4EF4-958B-EBFFF29D2E39}" name="Type de question" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{5BF404B4-6821-433E-A1B4-35ADDDDCF1C8}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{275F03BF-CF82-4044-8628-5EC4D9A71D89}" name="Noms photos (ex: img.png)" dataDxfId="99"/>
-    <tableColumn id="5" xr3:uid="{EB07F02D-0D88-4F5F-803D-15E72FCDA697}" name="Pictogrammes" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{9A01372D-7E10-43C8-B806-1F5DCDBB5469}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="97"/>
-    <tableColumn id="7" xr3:uid="{1EF6766D-1825-4F80-9223-7B3595BB781E}" name="Question suivante si Oui" dataDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{99AF2F3C-4C21-4712-9EE1-07C0C797DABC}" name="Partie Question suivante si Oui" dataDxfId="95"/>
-    <tableColumn id="9" xr3:uid="{A717076B-51D8-4FD8-8C29-BA088A1E3C31}" name="Id Question suivante si Non" dataDxfId="94"/>
-    <tableColumn id="10" xr3:uid="{BB7DA157-E598-435C-BA8D-9D42978F8B12}" name="Questions suivante si Non" dataDxfId="93"/>
-    <tableColumn id="11" xr3:uid="{425EE330-2DC0-4640-A685-D392A38AB17B}" name="Partie Question suivante si Non" dataDxfId="92"/>
-    <tableColumn id="12" xr3:uid="{EA76ED54-417D-4C57-8DF1-A8588BE67F9F}" name="Id Question précédente" dataDxfId="91"/>
-    <tableColumn id="13" xr3:uid="{5C302BDF-F913-41FC-A681-2E61595457DC}" name="Question précédente" dataDxfId="90">
+    <tableColumn id="1" xr3:uid="{3ABA099A-E774-4BEC-9982-663CE507F040}" name="Id Question" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{0F52FA11-27BB-45F3-AD64-38B44B370D11}" name="Question de la page" dataDxfId="101"/>
+    <tableColumn id="17" xr3:uid="{F55230D8-17FD-4514-9E16-640382D180B5}" name="Question en anglais" dataDxfId="100"/>
+    <tableColumn id="16" xr3:uid="{DB033608-E3CD-4EF4-958B-EBFFF29D2E39}" name="Type de question" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{5BF404B4-6821-433E-A1B4-35ADDDDCF1C8}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{275F03BF-CF82-4044-8628-5EC4D9A71D89}" name="Noms photos (ex: img.png)" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{EB07F02D-0D88-4F5F-803D-15E72FCDA697}" name="Pictogrammes" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{9A01372D-7E10-43C8-B806-1F5DCDBB5469}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{1EF6766D-1825-4F80-9223-7B3595BB781E}" name="Question suivante si Oui" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{99AF2F3C-4C21-4712-9EE1-07C0C797DABC}" name="Partie Question suivante si Oui" dataDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{A717076B-51D8-4FD8-8C29-BA088A1E3C31}" name="Id Question suivante si Non" dataDxfId="92"/>
+    <tableColumn id="10" xr3:uid="{BB7DA157-E598-435C-BA8D-9D42978F8B12}" name="Questions suivante si Non" dataDxfId="91"/>
+    <tableColumn id="11" xr3:uid="{425EE330-2DC0-4640-A685-D392A38AB17B}" name="Partie Question suivante si Non" dataDxfId="90"/>
+    <tableColumn id="12" xr3:uid="{EA76ED54-417D-4C57-8DF1-A8588BE67F9F}" name="Id Question précédente" dataDxfId="89"/>
+    <tableColumn id="13" xr3:uid="{5C302BDF-F913-41FC-A681-2E61595457DC}" name="Question précédente" dataDxfId="88">
       <calculatedColumnFormula>VLOOKUP(N2,$A$1:$B$15,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{5EC3AB1E-6357-4CE8-9EB9-BB86576C8978}" name="Partie Question précédente" dataDxfId="89"/>
-    <tableColumn id="15" xr3:uid="{E33DDF1F-1428-4C1F-8CFD-BD7106ABC652}" name="Informations complémentaires pour cette question" dataDxfId="88"/>
-    <tableColumn id="18" xr3:uid="{80002343-FA5C-4F38-8A13-3878E865E739}" name="Colonne1" dataDxfId="87">
+    <tableColumn id="14" xr3:uid="{5EC3AB1E-6357-4CE8-9EB9-BB86576C8978}" name="Partie Question précédente" dataDxfId="87"/>
+    <tableColumn id="15" xr3:uid="{E33DDF1F-1428-4C1F-8CFD-BD7106ABC652}" name="Informations complémentaires pour cette question" dataDxfId="86"/>
+    <tableColumn id="18" xr3:uid="{80002343-FA5C-4F38-8A13-3878E865E739}" name="Colonne1" dataDxfId="85">
       <calculatedColumnFormula>IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4176,29 +4162,29 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D498CD96-8F17-48ED-95BB-811800C7677A}" name="Tableau4" displayName="Tableau4" ref="A1:R15" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D498CD96-8F17-48ED-95BB-811800C7677A}" name="Tableau4" displayName="Tableau4" ref="A1:R15" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83" tableBorderDxfId="81">
   <autoFilter ref="A1:R15" xr:uid="{D498CD96-8F17-48ED-95BB-811800C7677A}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{AC85DB3B-7F49-4D88-AB3F-0B08B35B2878}" name="Id Question" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{CDDA87DB-08A6-4D69-9464-DEBF2B158877}" name="Question de la page" dataDxfId="81"/>
-    <tableColumn id="17" xr3:uid="{C7BF0787-EF73-4FA6-B4A1-7558CC6CC31C}" name="Question en anglais" dataDxfId="80"/>
-    <tableColumn id="16" xr3:uid="{19330D64-6D37-4433-89D2-A1AED35DEF1C}" name="Type de question" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{D0ABD5A1-8CA5-4A14-8791-E65B297290B6}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{CF08C9FA-3F4C-4A30-91F9-B6B2979EA1A9}" name="Noms photos (ex: img.png)" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{A8DE461B-048D-4A07-AE1D-AD1A16C66996}" name="Pictogrammes" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{30AAB8F3-B542-479D-92BB-5AE29A36BE4C}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{B2875827-3862-4896-92B0-F8E5DCED9D74}" name="Question suivante si Oui" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{B462AE07-42C9-40A6-9D78-5F2D0FA1A03B}" name="Partie Question suivante si Oui" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{5F3DA5F3-6E85-4044-833E-9A8FDAD1DE0A}" name="Id Question suivante si Non" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{8404C208-3A08-4BC8-92EC-98D282B4284C}" name="Questions suivante si Non" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{9A15C033-CB46-4F26-9733-896EBBE4D13E}" name="Partie Question suivante si Non" dataDxfId="70"/>
-    <tableColumn id="12" xr3:uid="{C976DE79-77B3-428E-BCE3-553A58B78C79}" name="Id Question précédente" dataDxfId="69"/>
-    <tableColumn id="13" xr3:uid="{88CFD583-93AA-4806-A37A-74AC0931A052}" name="Question précédente" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{AC85DB3B-7F49-4D88-AB3F-0B08B35B2878}" name="Id Question" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{CDDA87DB-08A6-4D69-9464-DEBF2B158877}" name="Question de la page" dataDxfId="79"/>
+    <tableColumn id="17" xr3:uid="{C7BF0787-EF73-4FA6-B4A1-7558CC6CC31C}" name="Question en anglais" dataDxfId="78"/>
+    <tableColumn id="16" xr3:uid="{19330D64-6D37-4433-89D2-A1AED35DEF1C}" name="Type de question" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{D0ABD5A1-8CA5-4A14-8791-E65B297290B6}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{CF08C9FA-3F4C-4A30-91F9-B6B2979EA1A9}" name="Noms photos (ex: img.png)" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{A8DE461B-048D-4A07-AE1D-AD1A16C66996}" name="Pictogrammes" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{30AAB8F3-B542-479D-92BB-5AE29A36BE4C}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{B2875827-3862-4896-92B0-F8E5DCED9D74}" name="Question suivante si Oui" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{B462AE07-42C9-40A6-9D78-5F2D0FA1A03B}" name="Partie Question suivante si Oui" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{5F3DA5F3-6E85-4044-833E-9A8FDAD1DE0A}" name="Id Question suivante si Non" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{8404C208-3A08-4BC8-92EC-98D282B4284C}" name="Questions suivante si Non" dataDxfId="69"/>
+    <tableColumn id="11" xr3:uid="{9A15C033-CB46-4F26-9733-896EBBE4D13E}" name="Partie Question suivante si Non" dataDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{C976DE79-77B3-428E-BCE3-553A58B78C79}" name="Id Question précédente" dataDxfId="67"/>
+    <tableColumn id="13" xr3:uid="{88CFD583-93AA-4806-A37A-74AC0931A052}" name="Question précédente" dataDxfId="66">
       <calculatedColumnFormula>VLOOKUP(N2,$A$1:$B$15,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{ADE04D74-63F9-4369-85AC-B46DB6707F03}" name="Partie Question précédente" dataDxfId="67"/>
-    <tableColumn id="15" xr3:uid="{A253B977-9220-4F91-BBAE-C0567C6E4972}" name="Informations complémentaires pour cette question" dataDxfId="66"/>
-    <tableColumn id="18" xr3:uid="{5168C6E8-B03E-4FCA-A357-105BA4F54C0D}" name="Colonne1" dataDxfId="65">
+    <tableColumn id="14" xr3:uid="{ADE04D74-63F9-4369-85AC-B46DB6707F03}" name="Partie Question précédente" dataDxfId="65"/>
+    <tableColumn id="15" xr3:uid="{A253B977-9220-4F91-BBAE-C0567C6E4972}" name="Informations complémentaires pour cette question" dataDxfId="64"/>
+    <tableColumn id="18" xr3:uid="{5168C6E8-B03E-4FCA-A357-105BA4F54C0D}" name="Colonne1" dataDxfId="63">
       <calculatedColumnFormula>IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4207,31 +4193,31 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{291D49DF-DD51-4878-8C59-4DA9E822C9B9}" name="Tableau5" displayName="Tableau5" ref="A1:R9" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{291D49DF-DD51-4878-8C59-4DA9E822C9B9}" name="Tableau5" displayName="Tableau5" ref="A1:R9" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59">
   <autoFilter ref="A1:R9" xr:uid="{291D49DF-DD51-4878-8C59-4DA9E822C9B9}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0CB98829-58A8-488D-9961-4B69DEB86AAB}" name="Id Question" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{39598F62-CD87-49A5-9198-3BCAF6FDC90E}" name="Question de la page" dataDxfId="59"/>
-    <tableColumn id="17" xr3:uid="{BC1EC557-B8E2-4E7B-8353-96823C49E335}" name="Question en anglais" dataDxfId="58"/>
-    <tableColumn id="16" xr3:uid="{3FB226AA-B259-45DA-AFEA-F2D0C845483F}" name="Type de question" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{F3B34FAF-F1E1-47E4-B8E8-1FE8CCEBC07E}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{44977646-65CE-49DC-9F70-DC0DDDDEF217}" name="Noms photos (ex: img.png)" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{07390D1E-25FB-42FB-9948-566F0E65F83C}" name="Pictogrammes" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{F73D95E2-9264-46A7-BF03-998507A32975}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{2354E2A6-8EA5-45D0-8DB5-D85ECD5114B6}" name="Question suivante si Oui" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{C120BECF-478B-40AD-BFB4-6C6030AC7D30}" name="Partie Question suivante si Oui" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{32EF6BC5-208D-450E-8347-12C1290BB0A9}" name="Id Question suivante si Non" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{39BC0D2F-20C9-41E7-B8C3-E51BE9AE25D3}" name="Questions suivante si Non" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{0CB98829-58A8-488D-9961-4B69DEB86AAB}" name="Id Question" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{39598F62-CD87-49A5-9198-3BCAF6FDC90E}" name="Question de la page" dataDxfId="57"/>
+    <tableColumn id="17" xr3:uid="{BC1EC557-B8E2-4E7B-8353-96823C49E335}" name="Question en anglais" dataDxfId="56"/>
+    <tableColumn id="16" xr3:uid="{3FB226AA-B259-45DA-AFEA-F2D0C845483F}" name="Type de question" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{F3B34FAF-F1E1-47E4-B8E8-1FE8CCEBC07E}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{44977646-65CE-49DC-9F70-DC0DDDDEF217}" name="Noms photos (ex: img.png)" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{07390D1E-25FB-42FB-9948-566F0E65F83C}" name="Pictogrammes" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{F73D95E2-9264-46A7-BF03-998507A32975}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{2354E2A6-8EA5-45D0-8DB5-D85ECD5114B6}" name="Question suivante si Oui" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{C120BECF-478B-40AD-BFB4-6C6030AC7D30}" name="Partie Question suivante si Oui" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{32EF6BC5-208D-450E-8347-12C1290BB0A9}" name="Id Question suivante si Non" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{39BC0D2F-20C9-41E7-B8C3-E51BE9AE25D3}" name="Questions suivante si Non" dataDxfId="47">
       <calculatedColumnFormula>VLOOKUP(K2,$A$1:$B$15,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A97B6CD2-31B2-4031-9A11-A2F2EE5F65A2}" name="Partie Question suivante si Non" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{7D2BFDB3-D873-49A1-9F31-A9C3EC604058}" name="Id Question précédente" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{AF21C716-8001-4771-BD55-B6CCB6BD7DEE}" name="Question précédente" dataDxfId="46">
+    <tableColumn id="11" xr3:uid="{A97B6CD2-31B2-4031-9A11-A2F2EE5F65A2}" name="Partie Question suivante si Non" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{7D2BFDB3-D873-49A1-9F31-A9C3EC604058}" name="Id Question précédente" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{AF21C716-8001-4771-BD55-B6CCB6BD7DEE}" name="Question précédente" dataDxfId="44">
       <calculatedColumnFormula>VLOOKUP(N2,$A$1:$B$15,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{588CBC47-BDA8-43B0-BC94-2F695A2F730A}" name="Partie Question précédente" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{E5CF537D-E02C-4D93-AA51-D15BB0C9D7E0}" name="Informations complémentaires pour cette question" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{E5D66B0C-5213-4516-A067-4208B49F5B66}" name="Colonne1" dataDxfId="43">
+    <tableColumn id="14" xr3:uid="{588CBC47-BDA8-43B0-BC94-2F695A2F730A}" name="Partie Question précédente" dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{E5CF537D-E02C-4D93-AA51-D15BB0C9D7E0}" name="Informations complémentaires pour cette question" dataDxfId="42"/>
+    <tableColumn id="18" xr3:uid="{E5D66B0C-5213-4516-A067-4208B49F5B66}" name="Colonne1" dataDxfId="41">
       <calculatedColumnFormula>IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4240,29 +4226,29 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DD1D5BC8-AD35-4D6B-BE01-E92D2660B90C}" name="Tableau7" displayName="Tableau7" ref="A1:R17" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DD1D5BC8-AD35-4D6B-BE01-E92D2660B90C}" name="Tableau7" displayName="Tableau7" ref="A1:R17" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
   <autoFilter ref="A1:R17" xr:uid="{DD1D5BC8-AD35-4D6B-BE01-E92D2660B90C}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{4067B178-C950-40B5-B2C2-0B2DBB2EF042}" name="Id Question" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{3EDC7604-E377-47E7-BB13-4C66D8EA2626}" name="Question de la page" dataDxfId="37"/>
-    <tableColumn id="17" xr3:uid="{05B61F68-0A28-4375-A7E2-212C6B3D3BF5}" name="Question en anglais" dataDxfId="36"/>
-    <tableColumn id="16" xr3:uid="{23361123-86ED-404C-A565-2395A324D7E6}" name="Type de question" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{31FD0A19-ABA9-4AB8-B761-7EA12CF61A56}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{11DB41AE-712C-494C-8AEC-B69778939299}" name="Noms photos (ex: img.png)" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{55673899-1E9A-4EAB-BCA3-7F0184023C09}" name="Pictogrammes" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{35E27E0D-2D38-448E-8003-D416E0C2BB12}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{D4D6CA08-688A-4B8D-B7C0-8C65DA4FB43A}" name="Question suivante si Oui" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{0BFA8EE3-922E-49D4-9971-AC7DCECDBA8E}" name="Partie Question suivante si Oui" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{EBB929EE-48FF-4B98-B37C-59F318A267A5}" name="Id Question suivante si Non" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{8A08C933-48DF-4F8C-8B93-9D3FE764524C}" name="Questions suivante si Non" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{6BE2F351-0937-44CF-B583-F5639F2FDD6E}" name="Partie Question suivante si Non" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{C5123792-9E0A-41F0-8B61-03B2CA7BD12C}" name="Id Question précédente" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{33BD2489-FE52-4C5D-A37B-86998D64855F}" name="Question précédente" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{4067B178-C950-40B5-B2C2-0B2DBB2EF042}" name="Id Question" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{3EDC7604-E377-47E7-BB13-4C66D8EA2626}" name="Question de la page" dataDxfId="35"/>
+    <tableColumn id="17" xr3:uid="{05B61F68-0A28-4375-A7E2-212C6B3D3BF5}" name="Question en anglais" dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{23361123-86ED-404C-A565-2395A324D7E6}" name="Type de question" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{31FD0A19-ABA9-4AB8-B761-7EA12CF61A56}" name="Partie (ex: Mise en Sécurité, Observations et examen, Diagnostic ou Résolution)" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{11DB41AE-712C-494C-8AEC-B69778939299}" name="Noms photos (ex: img.png)" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{55673899-1E9A-4EAB-BCA3-7F0184023C09}" name="Pictogrammes" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{35E27E0D-2D38-448E-8003-D416E0C2BB12}" name="Id Question suivante si Oui (si question sans Oui ou Non, mettre par défaut sous Oui)" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{D4D6CA08-688A-4B8D-B7C0-8C65DA4FB43A}" name="Question suivante si Oui" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{0BFA8EE3-922E-49D4-9971-AC7DCECDBA8E}" name="Partie Question suivante si Oui" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{EBB929EE-48FF-4B98-B37C-59F318A267A5}" name="Id Question suivante si Non" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{8A08C933-48DF-4F8C-8B93-9D3FE764524C}" name="Questions suivante si Non" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{6BE2F351-0937-44CF-B583-F5639F2FDD6E}" name="Partie Question suivante si Non" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{C5123792-9E0A-41F0-8B61-03B2CA7BD12C}" name="Id Question précédente" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{33BD2489-FE52-4C5D-A37B-86998D64855F}" name="Question précédente" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP(N2,$A$1:$B$20,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{90ADCE0D-A6E5-4B34-8CE1-5586E9DBA928}" name="Partie Question précédente" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{E97CB95E-0874-482B-AD2C-AE75ABBD769D}" name="Informations complémentaires pour cette question" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{1D0B5F1D-F01F-4860-8691-983EC9FD07AD}" name="Colonne1" dataDxfId="21">
+    <tableColumn id="14" xr3:uid="{90ADCE0D-A6E5-4B34-8CE1-5586E9DBA928}" name="Partie Question précédente" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{E97CB95E-0874-482B-AD2C-AE75ABBD769D}" name="Informations complémentaires pour cette question" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{1D0B5F1D-F01F-4860-8691-983EC9FD07AD}" name="Colonne1" dataDxfId="19">
       <calculatedColumnFormula>IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4590,10 +4576,10 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:O32"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4671,7 +4657,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4709,7 +4695,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>20</v>
@@ -4727,13 +4713,13 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -4781,22 +4767,20 @@
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
@@ -4821,13 +4805,13 @@
     </row>
     <row r="5" spans="1:18" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>19</v>
@@ -4845,7 +4829,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
@@ -4854,7 +4838,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>20</v>
@@ -4878,10 +4862,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>19</v>
@@ -4890,7 +4874,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>22</v>
@@ -4899,7 +4883,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
@@ -4908,16 +4892,16 @@
         <v>20</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>20</v>
@@ -4932,10 +4916,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
@@ -4944,7 +4928,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
@@ -4989,10 +4973,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
@@ -5001,7 +4985,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
@@ -5046,19 +5030,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>43</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
@@ -5093,10 +5077,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>45</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>28</v>
@@ -5105,7 +5089,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
@@ -5150,19 +5134,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>48</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>22</v>
@@ -5197,10 +5181,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>19</v>
@@ -5218,7 +5202,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>20</v>
@@ -5227,16 +5211,16 @@
         <v>9</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>20</v>
@@ -5251,13 +5235,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>53</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>20</v>
@@ -5272,7 +5256,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>20</v>
@@ -5297,10 +5281,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>19</v>
@@ -5309,7 +5293,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>22</v>
@@ -5325,7 +5309,7 @@
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L14" s="1" t="str">
         <f>B15</f>
@@ -5351,13 +5335,13 @@
     </row>
     <row r="15" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>19</v>
@@ -5366,13 +5350,13 @@
         <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>B18</f>
@@ -5382,7 +5366,7 @@
         <v>20</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="1" t="str">
         <f>B16</f>
@@ -5392,7 +5376,7 @@
         <v>20</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O15" s="1" t="str">
         <f>B14&amp;" OU "&amp;B21</f>
@@ -5408,16 +5392,16 @@
     </row>
     <row r="16" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>62</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>20</v>
@@ -5429,7 +5413,7 @@
         <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>B17</f>
@@ -5439,7 +5423,7 @@
         <v>20</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O16" s="1" t="str">
         <f>B15</f>
@@ -5455,16 +5439,16 @@
     </row>
     <row r="17" spans="1:18" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>65</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>20</v>
@@ -5489,7 +5473,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O17" s="1" t="str">
         <f>B16</f>
@@ -5505,22 +5489,22 @@
     </row>
     <row r="18" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>67</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>22</v>
@@ -5536,7 +5520,7 @@
         <v>20</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="1" t="str">
         <f>B15</f>
@@ -5555,10 +5539,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>19</v>
@@ -5567,7 +5551,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>22</v>
@@ -5612,10 +5596,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>19</v>
@@ -5624,7 +5608,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>22</v>
@@ -5669,25 +5653,25 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>43</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>B15</f>
@@ -5716,10 +5700,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>28</v>
@@ -5728,7 +5712,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>22</v>
@@ -5773,22 +5757,22 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>48</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H23" s="1">
         <v>17</v>
@@ -5820,10 +5804,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>71</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>19</v>
@@ -5877,13 +5861,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>73</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>20</v>
@@ -5892,7 +5876,7 @@
         <v>21</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H25" s="1">
         <v>20</v>
@@ -5924,19 +5908,19 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>65</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>22</v>
@@ -5971,13 +5955,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>75</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -5992,16 +5976,16 @@
         <v>23</v>
       </c>
       <c r="I27" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O27" s="2" t="str">
         <f>B9&amp;" OU "&amp;B11&amp;" OU "&amp;B16</f>
@@ -6017,8 +6001,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A2:C27 E22:K22 M22:P22 E23:P23 E24:K24 M24:P24 E25:P27 E2:P21">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+  <conditionalFormatting sqref="E2:P21 A2:C27 E22:K22 M22:P22 E23:P23 E24:K24 M24:P24 E25:P27">
+    <cfRule type="containsBlanks" dxfId="18" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6055,10 +6039,10 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:O32"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6129,22 +6113,22 @@
         <v>12</v>
       </c>
       <c r="N1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>83</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="T1" s="17" t="s">
         <v>13</v>
@@ -6159,7 +6143,7 @@
         <v>16</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -6167,40 +6151,40 @@
         <v>23</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="12" t="str">
         <f t="shared" ref="I2:I11" si="0">VLOOKUP(H2,$A$1:$B$93,2,FALSE)</f>
         <v>Le JacXson est-il à l'arrêt depuis longtemps ?</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="12" t="str">
         <f>VLOOKUP(K2,$A$1:$B$93,2,FALSE)</f>
         <v>Charger/Changer les batteries. Le problème persiste-t-il ?</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
@@ -6209,13 +6193,13 @@
       <c r="R2" s="23"/>
       <c r="S2" s="23"/>
       <c r="T2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="5" t="str">
@@ -6225,44 +6209,44 @@
     </row>
     <row r="3" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>91</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Le JacXson est-il à l'arrêt depuis longtemps ?</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K3" s="12">
         <v>1</v>
       </c>
       <c r="L3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
@@ -6278,7 +6262,7 @@
         <v>Le niveau de batterie du JacXson et de la télécommande sont-ils suffisants ?</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="5" t="str">
@@ -6288,41 +6272,41 @@
     </row>
     <row r="4" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>94</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>95</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>L'état des batteries est-il bon ?</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L4" s="12" t="str">
         <f>VLOOKUP(K4,$A$1:$B$93,2,FALSE)</f>
         <v>Le problème est-il récurrent ?</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
@@ -6338,7 +6322,7 @@
         <v>Le niveau de batterie du JacXson et de la télécommande sont-ils suffisants ?</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="5" t="str">
@@ -6348,42 +6332,42 @@
     </row>
     <row r="5" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>98</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>99</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Le problème est-il récurrent ?</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="12">
         <v>2</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
@@ -6392,14 +6376,14 @@
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
       <c r="T5" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U5" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Le JacXson est-il à l'arrêt depuis longtemps ?</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="5" t="str">
@@ -6409,31 +6393,31 @@
     </row>
     <row r="6" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>D'autres appareils sont en marche à côté du JacXson ?</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="12">
         <v>2</v>
@@ -6443,7 +6427,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
@@ -6452,14 +6436,14 @@
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Le JacXson est-il à l'arrêt depuis longtemps ?</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="5" t="str">
@@ -6469,41 +6453,41 @@
     </row>
     <row r="7" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Le problème persiste-t-il lorsque cet autre appareil est éteint ?</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L7" s="12" t="str">
         <f>VLOOKUP(K7,$A$1:$B$93,2,FALSE)</f>
         <v>Le JacXson est bien en marche ?</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
@@ -6512,14 +6496,14 @@
       <c r="R7" s="23"/>
       <c r="S7" s="23"/>
       <c r="T7" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U7" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Le problème est-il récurrent ?</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="5" t="str">
@@ -6529,40 +6513,40 @@
     </row>
     <row r="8" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Le JacXson est bien en marche ?</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="12">
         <v>3</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
@@ -6571,14 +6555,14 @@
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
       <c r="T8" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U8" s="12" t="str">
         <f t="shared" si="2"/>
         <v>D'autres appareils sont en marche à côté du JacXson ?</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="5" t="str">
@@ -6588,19 +6572,19 @@
     </row>
     <row r="9" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>112</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -6612,17 +6596,17 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L9" s="12" t="str">
         <f>VLOOKUP(K9,$A$1:$B$93,2,FALSE)</f>
         <v>Le mettre en marche. Le problème persiste-t-il ?</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
@@ -6631,14 +6615,14 @@
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
       <c r="T9" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Le problème persiste-t-il lorsque cet autre appareil est éteint ?</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="5" t="str">
@@ -6648,19 +6632,19 @@
     </row>
     <row r="10" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>115</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -6672,16 +6656,16 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="12">
         <v>4</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
@@ -6690,14 +6674,14 @@
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
       <c r="T10" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U10" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Le JacXson est bien en marche ?</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="5" t="str">
@@ -6710,32 +6694,32 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>La lumière clignote-t-elle ?</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="12">
         <v>5</v>
@@ -6745,34 +6729,34 @@
         <v>Sélectionner un mode. Le problème persiste-t-il ?</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N11" s="23">
         <v>6</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P11" s="23">
         <v>3</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R11" s="23">
         <v>7</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="U11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="U11" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="V11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="5" t="str">
@@ -6782,19 +6766,19 @@
     </row>
     <row r="12" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>125</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
@@ -6802,19 +6786,19 @@
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K12" s="12">
         <v>9</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
@@ -6830,7 +6814,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="5" t="str">
@@ -6843,19 +6827,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>129</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>22</v>
@@ -6864,10 +6848,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="K13" s="12">
         <v>4</v>
@@ -6877,7 +6861,7 @@
         <v>Les resserrer/connecter</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
@@ -6893,7 +6877,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="5" t="str">
@@ -6906,22 +6890,22 @@
         <v>4</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>134</v>
-      </c>
       <c r="D14" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>331</v>
       </c>
       <c r="H14" s="12">
         <v>2</v>
@@ -6931,7 +6915,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -6950,7 +6934,7 @@
         <v>Les câbles de la vérine d'état sont-ils connectés ?</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="5" t="str">
@@ -6963,41 +6947,41 @@
         <v>5</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>136</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I15" s="12" t="str">
         <f>VLOOKUP(H15,$A$1:$B$93,2,FALSE)</f>
         <v>La fonction ouverture du JacXson est-elle bloquée ?</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15" s="12">
         <v>5</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
@@ -7013,7 +6997,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="5" t="str">
@@ -7023,37 +7007,39 @@
     </row>
     <row r="16" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>139</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>140</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="12" t="s">
+        <v>333</v>
+      </c>
       <c r="J16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -7069,7 +7055,7 @@
         <v>Sélectionner un mode. Le problème persiste-t-il ?</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="5" t="str">
@@ -7082,19 +7068,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>142</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>22</v>
@@ -7107,7 +7093,7 @@
         <v>Identifier la fonction défaillante.</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="12">
         <v>11</v>
@@ -7117,7 +7103,7 @@
         <v>Une fonction était-elle bloquée avant l'apparition de la LED magenta ?</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -7133,7 +7119,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="5" t="str">
@@ -7146,19 +7132,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>143</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>144</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>22</v>
@@ -7171,7 +7157,7 @@
         <v>Le désactiver</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="12">
         <v>8</v>
@@ -7181,7 +7167,7 @@
         <v>Les câbles d'arrêt d'urgence sont-ils bien connectés et en bon état ?</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -7197,7 +7183,7 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="5" t="str">
@@ -7210,40 +7196,40 @@
         <v>8</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>146</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>147</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I19" s="12" t="str">
         <f>VLOOKUP(H19,$A$1:$B$93,2,FALSE)</f>
         <v>Y a-t-il une LED clignotante sur la manette ?</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L19" s="12" t="str">
         <f>VLOOKUP(K19,$A$1:$B$93,2,FALSE)</f>
         <v>Les changer</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -7259,7 +7245,7 @@
         <v>Le bouton d'arrêt d'urgence est-il activé ?</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W19" s="1"/>
       <c r="X19" s="5" t="str">
@@ -7269,33 +7255,33 @@
     </row>
     <row r="20" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>151</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I20" s="12" t="str">
         <f>VLOOKUP(H20,$A$1:$B$93,2,FALSE)</f>
         <v>Le problème persiste-t-il ?</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -7314,7 +7300,7 @@
         <v>Les câbles d'arrêt d'urgence sont-ils bien connectés et en bon état ?</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="5" t="str">
@@ -7324,39 +7310,39 @@
     </row>
     <row r="21" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>153</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>154</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -7372,7 +7358,7 @@
         <v>Les câbles d'arrêt d'urgence sont-ils bien connectés et en bon état ?</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="5" t="str">
@@ -7385,32 +7371,32 @@
         <v>9</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>158</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I22" s="12" t="str">
         <f>VLOOKUP(H22,$A$1:$B$93,2,FALSE)</f>
         <v>Le problème persiste-t-il ?</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -7429,7 +7415,7 @@
         <v>Le bouton d'arrêt d'urgence est-il activé ?</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W22" s="1"/>
       <c r="X22" s="5" t="str">
@@ -7439,19 +7425,19 @@
     </row>
     <row r="23" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>159</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>160</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12" t="s">
@@ -7465,16 +7451,16 @@
         <v>La vérine d'état est-elle allumée ?</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K23" s="12">
         <v>6</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
@@ -7490,7 +7476,7 @@
         <v>Le désactiver</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W23" s="1"/>
       <c r="X23" s="5" t="str">
@@ -7503,16 +7489,16 @@
         <v>10</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E24" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
@@ -7522,31 +7508,31 @@
         <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="K24" s="12">
         <v>1</v>
       </c>
       <c r="L24" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P24" s="23">
         <v>1</v>
       </c>
       <c r="Q24" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
@@ -7558,7 +7544,7 @@
         <v>L'IHM affiche un message d'erreur ?</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="5" t="str">
@@ -7571,30 +7557,30 @@
         <v>11</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>170</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>171</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I25" s="12" t="str">
         <f>VLOOKUP(H25,$A$1:$B$93,2,FALSE)</f>
         <v>Laquelle ?</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K25" s="12">
         <v>12</v>
@@ -7604,7 +7590,7 @@
         <v>Redémarrer le JacXson.</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
@@ -7620,7 +7606,7 @@
         <v>L'IHM affiche un message d'erreur ?</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W25" s="1"/>
       <c r="X25" s="5" t="str">
@@ -7630,19 +7616,19 @@
     </row>
     <row r="26" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="D26" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="E26" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
@@ -7652,25 +7638,25 @@
         <v>25</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="K26" s="12">
         <v>1</v>
       </c>
       <c r="L26" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="N26" s="23" t="s">
         <v>25</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P26" s="23"/>
       <c r="Q26" s="30"/>
@@ -7684,7 +7670,7 @@
         <v>Une fonction était-elle bloquée avant l'apparition de la LED magenta ?</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W26" s="1"/>
       <c r="X26" s="5" t="str">
@@ -7697,30 +7683,30 @@
         <v>12</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>177</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I27" s="12" t="str">
         <f>VLOOKUP(H27,$A$1:$B$93,2,FALSE)</f>
         <v>Un élément visuel semble t-il particulièrement abîmé ?</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
@@ -7739,7 +7725,7 @@
         <v>Une fonction était-elle bloquée avant l'apparition de la LED magenta ?</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W27" s="1"/>
       <c r="X27" s="5" t="str">
@@ -7749,33 +7735,33 @@
     </row>
     <row r="28" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="23" t="s">
         <v>179</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>180</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I28" s="12" t="str">
         <f>VLOOKUP(H28,$A$1:$B$93,2,FALSE)</f>
         <v>Sur quel système se situe cet élément ?</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K28" s="12">
         <v>13</v>
@@ -7785,7 +7771,7 @@
         <v>Le JacXson est-il chargé ?</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
@@ -7801,7 +7787,7 @@
         <v>Redémarrer le JacXson.</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1" t="str">
@@ -7811,19 +7797,19 @@
     </row>
     <row r="29" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>183</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
@@ -7833,39 +7819,39 @@
         <v>25</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="K29" s="12">
         <v>1</v>
       </c>
       <c r="L29" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="N29" s="23" t="s">
         <v>25</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P29" s="23"/>
       <c r="Q29" s="30"/>
       <c r="R29" s="23"/>
       <c r="S29" s="23"/>
       <c r="T29" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U29" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Un élément visuel semble t-il particulièrement abîmé ?</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W29" s="1"/>
       <c r="X29" s="1" t="str">
@@ -7878,29 +7864,29 @@
         <v>13</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>185</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K30" s="12">
         <v>14</v>
@@ -7910,7 +7896,7 @@
         <v>Le charger.</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
@@ -7919,14 +7905,14 @@
       <c r="R30" s="23"/>
       <c r="S30" s="23"/>
       <c r="T30" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U30" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Un élément visuel semble t-il particulièrement abîmé ?</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1" t="str">
@@ -7939,16 +7925,16 @@
         <v>14</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>188</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
@@ -7958,10 +7944,10 @@
         <v>14</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
@@ -7980,7 +7966,7 @@
         <v>Le JacXson est-il chargé ?</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W31" s="1"/>
       <c r="X31" s="1" t="str">
@@ -7993,16 +7979,16 @@
         <v>15</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>189</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>190</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
@@ -8010,19 +7996,19 @@
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K32" s="12">
         <v>8</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
@@ -8038,7 +8024,7 @@
         <v>Le charger.</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W32" s="1"/>
       <c r="X32" s="1" t="str">
@@ -8048,33 +8034,33 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E2:T2 V2 A2:C32 E13:H13 J13:V13 E24:K24 M24:V24 E25:V25 E26:K26 M26:V26 E27:V28 E29:K29 M29:V29 E14:V23 E3:V12 E30:V32">
-    <cfRule type="containsBlanks" dxfId="18" priority="9">
+  <conditionalFormatting sqref="E2:T2 V2 A2:C32 E3:V12 E13:H13 J13:V13 E14:V23 E24:K24 M24:V24 E25:V25 E26:K26 M26:V26 E27:V28 E29:K29 M29:V29 E30:V32">
+    <cfRule type="containsBlanks" dxfId="16" priority="9">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V32 M2:S32 J2:J32">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="notEqual">
+  <conditionalFormatting sqref="J2:J32 M2:S32 V2:V32">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="notEqual">
       <formula>$M$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="containsBlanks" dxfId="16" priority="7">
+    <cfRule type="containsBlanks" dxfId="14" priority="7">
       <formula>LEN(TRIM(L24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="13" priority="5">
       <formula>LEN(TRIM(L26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="12" priority="3">
       <formula>LEN(TRIM(L29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="containsBlanks" dxfId="13" priority="8">
+    <cfRule type="containsBlanks" dxfId="11" priority="8">
       <formula>LEN(TRIM(U2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8091,10 +8077,10 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:O32"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8171,7 +8157,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -8179,51 +8165,51 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I2" s="23" t="str">
         <f>VLOOKUP(H2,$A$1:$B$15,2,FALSE)</f>
         <v>Vérifier le BMV. La valeur est-elle OK ?</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" s="1">
         <v>5</v>
       </c>
       <c r="L2" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="M2" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="R2" s="23" t="str">
         <f t="shared" ref="R2:R13" si="0">IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</f>
@@ -8232,19 +8218,19 @@
     </row>
     <row r="3" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>197</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>198</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>21</v>
@@ -8258,16 +8244,16 @@
         <v>Vérifier l'état des LEDs. Sont-elles toutes fonctionnelles ?</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N3" s="23">
         <v>1</v>
@@ -8277,10 +8263,10 @@
         <v>Le BMV est-il allumé ?</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R3" s="23" t="str">
         <f t="shared" si="0"/>
@@ -8292,20 +8278,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>201</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>202</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H4" s="23">
         <v>4</v>
@@ -8315,7 +8301,7 @@
         <v>Lancer l'auto-diagnostic de l'alimentation.</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K4" s="23">
         <v>3</v>
@@ -8325,20 +8311,20 @@
         <v>Les remplacer. De nouvelles LEDs se sont-elles allumées ?</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O4" s="23" t="str">
         <f t="shared" si="2"/>
         <v>Vérifier le BMV. La valeur est-elle OK ?</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R4" s="23" t="str">
         <f t="shared" si="0"/>
@@ -8350,29 +8336,29 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K5" s="23">
         <v>4</v>
@@ -8382,7 +8368,7 @@
         <v>Lancer l'auto-diagnostic de l'alimentation.</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N5" s="23">
         <v>2</v>
@@ -8392,10 +8378,10 @@
         <v>Vérifier l'état des LEDs. Sont-elles toutes fonctionnelles ?</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R5" s="23" t="str">
         <f t="shared" si="0"/>
@@ -8407,34 +8393,32 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>208</v>
-      </c>
       <c r="D6" s="23" t="s">
-        <v>28</v>
+        <v>329</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I6" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="23" t="s">
-        <v>132</v>
-      </c>
+      <c r="M6" s="23"/>
       <c r="N6" s="23">
         <v>2</v>
       </c>
@@ -8443,31 +8427,31 @@
         <v>Vérifier l'état des LEDs. Sont-elles toutes fonctionnelles ?</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R6" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>OK,NOK</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>211</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>212</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -8475,10 +8459,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" s="23">
         <v>5</v>
@@ -8488,7 +8472,7 @@
         <v>Les ventilateurs fonctionnent-ils et les filtres sont-ils propres ?</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N7" s="23">
         <v>4</v>
@@ -8498,7 +8482,7 @@
         <v>Lancer l'auto-diagnostic de l'alimentation.</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="23" t="str">
@@ -8511,22 +8495,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>214</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>215</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H8" s="23">
         <v>7</v>
@@ -8536,7 +8520,7 @@
         <v>Les batteries sont-elles gonflées ou échauffées ?</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K8" s="23">
         <v>6</v>
@@ -8546,7 +8530,7 @@
         <v>Les remplacer. Le problème persiste-t-il ?</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N8" s="23">
         <v>4</v>
@@ -8556,10 +8540,10 @@
         <v>Lancer l'auto-diagnostic de l'alimentation.</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R8" s="23" t="str">
         <f t="shared" si="0"/>
@@ -8571,22 +8555,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>218</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>219</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H9" s="23">
         <v>7</v>
@@ -8596,16 +8580,16 @@
         <v>Les batteries sont-elles gonflées ou échauffées ?</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K9" s="1">
         <v>3</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N9" s="23">
         <v>5</v>
@@ -8615,7 +8599,7 @@
         <v>Les ventilateurs fonctionnent-ils et les filtres sont-ils propres ?</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="23" t="str">
@@ -8628,22 +8612,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>221</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>222</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H10" s="23">
         <v>8</v>
@@ -8653,7 +8637,7 @@
         <v>Les remplacer. Le problème persiste-t-il ?</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" s="23">
         <v>9</v>
@@ -8663,7 +8647,7 @@
         <v>Les câbles visibles sont-ils en mauais état ou pincés ?</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N10" s="23">
         <v>6</v>
@@ -8673,7 +8657,7 @@
         <v>Les remplacer. Le problème persiste-t-il ?</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="23" t="str">
@@ -8686,22 +8670,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>218</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>219</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H11" s="23">
         <v>9</v>
@@ -8711,16 +8695,16 @@
         <v>Les câbles visibles sont-ils en mauais état ou pincés ?</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" s="1">
         <v>4</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N11" s="23">
         <v>7</v>
@@ -8730,10 +8714,10 @@
         <v>Les batteries sont-elles gonflées ou échauffées ?</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R11" s="23" t="str">
         <f t="shared" si="0"/>
@@ -8745,20 +8729,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>225</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>226</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H12" s="23">
         <v>10</v>
@@ -8768,14 +8752,14 @@
         <v>Les remplacer. Le problème persiste-t-il ?</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N12" s="23">
         <v>7</v>
@@ -8785,7 +8769,7 @@
         <v>Les batteries sont-elles gonflées ou échauffées ?</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="23" t="str">
@@ -8798,36 +8782,36 @@
         <v>10</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>219</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13" s="1">
         <v>4</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N13" s="26">
         <v>9</v>
@@ -8837,7 +8821,7 @@
         <v>Les câbles visibles sont-ils en mauais état ou pincés ?</v>
       </c>
       <c r="P13" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="23" t="str">
@@ -8865,17 +8849,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:N2 P2 E3:P13 A2:C13">
-    <cfRule type="containsBlanks" dxfId="12" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="3">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13 M2:M13 P2:P13">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="notEqual">
       <formula>$M$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="containsBlanks" dxfId="10" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8891,8 +8875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A5EC47-33DC-4C33-9E98-BE72FB1369E7}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
@@ -8971,7 +8955,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -8979,19 +8963,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23">
@@ -9002,7 +8986,7 @@
         <v>Lancer l'auto-diagnostic de levage</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K2" s="23">
         <v>2</v>
@@ -9012,16 +8996,16 @@
         <v>Vérifier le bon fonctionnement de chaque axe</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N2" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>230</v>
-      </c>
       <c r="P2" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="33" t="str">
@@ -9034,16 +9018,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>232</v>
-      </c>
       <c r="D3" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -9051,10 +9035,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
@@ -9067,7 +9051,7 @@
         <v>Vérifier la plage de levage. La plage est-elle OK ?</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q3" s="23"/>
       <c r="R3" s="23" t="str">
@@ -9080,28 +9064,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>234</v>
-      </c>
       <c r="D4" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="H4" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I4" s="23" t="str">
         <f>VLOOKUP(H4,$A$1:$B$15,2,FALSE)</f>
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
@@ -9114,7 +9098,7 @@
         <v>Vérifier la plage de levage. La plage est-elle OK ?</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="23"/>
       <c r="R4" s="23" t="str">
@@ -9124,19 +9108,19 @@
     </row>
     <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -9144,10 +9128,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" s="23">
         <v>4</v>
@@ -9157,7 +9141,7 @@
         <v>Y a-t-il une déformation géométrique du ciseau ?</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N5" s="23">
         <v>3</v>
@@ -9167,7 +9151,7 @@
         <v>Lancer l'auto-diagnostic de levage</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="23"/>
       <c r="R5" s="23" t="str">
@@ -9180,27 +9164,27 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>236</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>237</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" s="23">
         <v>5</v>
@@ -9210,17 +9194,17 @@
         <v>Y a-t-il des bruits anormaux ?</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O6" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="23" t="str">
@@ -9233,19 +9217,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>240</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>241</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23">
@@ -9256,7 +9240,7 @@
         <v>Le bruit provient-il de la vis de levage ?</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K7" s="23">
         <v>7</v>
@@ -9266,7 +9250,7 @@
         <v>Retirer le soufflet et vérifier l'état de la vis de levage</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N7" s="23">
         <v>4</v>
@@ -9276,7 +9260,7 @@
         <v>Y a-t-il une déformation géométrique du ciseau ?</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23" t="str">
@@ -9289,35 +9273,35 @@
         <v>6</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>243</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>244</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>245</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>246</v>
       </c>
       <c r="L8" s="23" t="str">
         <f t="shared" si="2"/>
         <v>Le bruit provient-il de l'ensemble motoréducteur de levage ?</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N8" s="23">
         <v>5</v>
@@ -9327,7 +9311,7 @@
         <v>Y a-t-il des bruits anormaux ?</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="23"/>
       <c r="R8" s="23" t="str">
@@ -9337,38 +9321,38 @@
     </row>
     <row r="9" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>247</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>248</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L9" s="23" t="str">
         <f t="shared" si="2"/>
         <v>Le bruit provient-il du frein de levage ?</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N9" s="23">
         <v>6</v>
@@ -9378,7 +9362,7 @@
         <v>Le bruit provient-il de la vis de levage ?</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="23"/>
       <c r="R9" s="23" t="str">
@@ -9388,28 +9372,28 @@
     </row>
     <row r="10" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>250</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>251</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" s="23">
         <v>7</v>
@@ -9419,17 +9403,17 @@
         <v>Retirer le soufflet et vérifier l'état de la vis de levage</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O10" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Le bruit provient-il de l'ensemble motoréducteur de levage ?</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="23"/>
       <c r="R10" s="23" t="str">
@@ -9442,48 +9426,48 @@
         <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>252</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>253</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I11" s="23" t="str">
         <f>VLOOKUP(H11,$A$1:$B$15,2,FALSE)</f>
         <v>Vérifier la présence de paillettes dans la graisse sur la vis de levage.</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="M11" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="23" t="s">
+      <c r="O11" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="O11" s="23" t="s">
-        <v>257</v>
-      </c>
       <c r="P11" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="23"/>
       <c r="R11" s="23" t="str">
@@ -9493,40 +9477,40 @@
     </row>
     <row r="12" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>258</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>259</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" ref="I12:I13" si="3">VLOOKUP(H12,$A$1:$B$15,2,FALSE)</f>
         <v>Vérifier la présence de fuites sur le réducteur.</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N12" s="23">
         <v>7</v>
@@ -9536,7 +9520,7 @@
         <v>Retirer le soufflet et vérifier l'état de la vis de levage</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="23"/>
       <c r="R12" s="23" t="str">
@@ -9546,22 +9530,22 @@
     </row>
     <row r="13" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="C13" s="23" t="s">
         <v>261</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>262</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23">
@@ -9572,24 +9556,24 @@
         <v>Les câbles apparents sont-ils bien connnectés et en bon état ?</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K13" s="23"/>
       <c r="L13" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Vérifier la présence de paillettes dans la graisse sur la vis de levage.</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="23"/>
       <c r="R13" s="23" t="str">
@@ -9602,27 +9586,27 @@
         <v>8</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>263</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>264</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" s="23">
         <v>9</v>
@@ -9632,17 +9616,17 @@
         <v>Le problème persiste-t-il après les avoir reconnecté / remplacés ?</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O14" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Vérifier la présence de fuites sur le réducteur.</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="23" t="str">
@@ -9655,36 +9639,36 @@
         <v>9</v>
       </c>
       <c r="B15" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>266</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>267</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K15" s="26">
         <v>3</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N15" s="26">
         <v>8</v>
@@ -9694,7 +9678,7 @@
         <v>Les câbles apparents sont-ils bien connnectés et en bon état ?</v>
       </c>
       <c r="P15" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q15" s="34"/>
       <c r="R15" s="34" t="str">
@@ -9705,17 +9689,17 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:N2 P2 A3:P15">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J15 M2:M15 P2:P15">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="notEqual">
       <formula>$M$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9731,7 +9715,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:O32"/>
       <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
@@ -9809,7 +9793,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -9817,16 +9801,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -9838,19 +9822,19 @@
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="23"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="str">
@@ -9863,16 +9847,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -9880,10 +9864,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K3" s="1">
         <v>2</v>
@@ -9893,7 +9877,7 @@
         <v>Le resserrement se fait-il correctement sur le stand ?</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>25</v>
@@ -9903,7 +9887,7 @@
         <v>Lancer l'auto-diagnostic de l'ouverture</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="str">
@@ -9916,28 +9900,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>270</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>271</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I4" s="23" t="str">
         <f>VLOOKUP(H4,$A$1:$B$15,2,FALSE)</f>
         <v>Refaire le point d'origine. Le problème es-il résolu ?</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K4" s="1">
         <v>3</v>
@@ -9947,7 +9931,7 @@
         <v>Le serrage de la frette est-il bon ? (4N.m)</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -9957,7 +9941,7 @@
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="str">
@@ -9967,19 +9951,19 @@
     </row>
     <row r="5" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="23" t="s">
         <v>273</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>274</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -9987,10 +9971,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
@@ -10000,7 +9984,7 @@
         <v>Le serrage de la frette est-il bon ? (4N.m)</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N5" s="1">
         <v>2</v>
@@ -10010,7 +9994,7 @@
         <v>Le resserrement se fait-il correctement sur le stand ?</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="str">
@@ -10023,20 +10007,20 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>275</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>276</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H6" s="1">
         <v>5</v>
@@ -10046,7 +10030,7 @@
         <v>Le serrage du pignon sur l'arbre est-il bon ? (60 N.m)</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K6" s="1">
         <v>4</v>
@@ -10056,7 +10040,7 @@
         <v>La resserrer. Le problème est-il résolu ?</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
@@ -10066,7 +10050,7 @@
         <v>Le resserrement se fait-il correctement sur le stand ?</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="str">
@@ -10079,16 +10063,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>277</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>278</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -10096,10 +10080,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" s="1">
         <v>5</v>
@@ -10109,7 +10093,7 @@
         <v>Le serrage du pignon sur l'arbre est-il bon ? (60 N.m)</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N7" s="1">
         <v>3</v>
@@ -10119,7 +10103,7 @@
         <v>Le serrage de la frette est-il bon ? (4N.m)</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="str">
@@ -10132,29 +10116,29 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>279</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>280</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" s="1">
         <v>6</v>
@@ -10164,7 +10148,7 @@
         <v>Le resserrer. Le problème est-il résolu ?</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N8" s="1">
         <v>4</v>
@@ -10174,7 +10158,7 @@
         <v>La resserrer. Le problème est-il résolu ?</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="str">
@@ -10187,16 +10171,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -10204,17 +10188,17 @@
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N9" s="1">
         <v>5</v>
@@ -10224,7 +10208,7 @@
         <v>Le serrage du pignon sur l'arbre est-il bon ? (60 N.m)</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="str">
@@ -10234,12 +10218,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:P9">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M9 P2:P9 J2:J9">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="notEqual">
+  <conditionalFormatting sqref="J2:J9 M2:M9 P2:P9">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="notEqual">
       <formula>$M$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10254,8 +10238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BADEEB-D1EA-4C4B-B712-78BF6D012B6E}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F22" sqref="F22"/>
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
       <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
@@ -10333,7 +10317,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -10341,16 +10325,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>284</v>
-      </c>
       <c r="D2" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -10362,22 +10346,22 @@
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
       <c r="N2" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>230</v>
-      </c>
       <c r="P2" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R2" s="33" t="str">
         <f t="shared" ref="R2:R17" si="0">IF(M2 = "", IF(LEFT(D2, 3) = "OK,", "OK", LEFT(D2, 3)), D2)</f>
@@ -10389,16 +10373,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -10406,10 +10390,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>23</v>
@@ -10419,7 +10403,7 @@
         <v>Une roue est-elle entravée ?</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N3" s="23" t="s">
         <v>25</v>
@@ -10429,7 +10413,7 @@
         <v>Lancer l'auto-diagnostic de roulage.</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" s="23"/>
       <c r="R3" s="23" t="str">
@@ -10442,30 +10426,30 @@
         <v>23</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>286</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="23" t="str">
         <f>VLOOKUP(H4,$A$1:$B$20,2,FALSE)</f>
         <v>La libérer. Le problème persiste-i-il ?</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K4" s="23">
         <v>2</v>
@@ -10475,7 +10459,7 @@
         <v>Y a-t-il des bruits anormaux ?</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N4" s="23">
         <v>1</v>
@@ -10485,10 +10469,10 @@
         <v>Le problème est-il résolu ?</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R4" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10497,19 +10481,19 @@
     </row>
     <row r="5" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>289</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>290</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -10521,16 +10505,16 @@
         <v>Y a-t-il des bruits anormaux ?</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K5" s="23">
         <v>4</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N5" s="23" t="s">
         <v>23</v>
@@ -10540,10 +10524,10 @@
         <v>Une roue est-elle entravée ?</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R5" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10555,16 +10539,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>240</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>241</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -10576,7 +10560,7 @@
         <v>Le bruit provient-il du réducteur ?</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K6" s="23">
         <v>4</v>
@@ -10586,7 +10570,7 @@
         <v>Vérifier l'état de la bande de roulement des roues</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>23</v>
@@ -10596,7 +10580,7 @@
         <v>Une roue est-elle entravée ?</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="23" t="str">
@@ -10609,37 +10593,37 @@
         <v>3</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>291</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>292</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L7" s="23" t="str">
         <f t="shared" ref="L7:L9" si="3">VLOOKUP(K7,$A$1:$B$20,2,FALSE)</f>
         <v>Le bruit provient-il du moteur ?</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N7" s="23">
         <v>2</v>
@@ -10649,7 +10633,7 @@
         <v>Y a-t-il des bruits anormaux ?</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23" t="str">
@@ -10659,38 +10643,38 @@
     </row>
     <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>293</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>294</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L8" s="23" t="str">
         <f t="shared" si="3"/>
         <v>Le bruit provient-il du frein ?</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N8" s="23">
         <v>3</v>
@@ -10700,10 +10684,10 @@
         <v>Le bruit provient-il du réducteur ?</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R8" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10712,28 +10696,28 @@
     </row>
     <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>297</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>298</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K9" s="23">
         <v>4</v>
@@ -10743,20 +10727,20 @@
         <v>Vérifier l'état de la bande de roulement des roues</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O9" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Le bruit provient-il du moteur ?</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R9" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10768,39 +10752,39 @@
         <v>4</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>300</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>301</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I10" s="23" t="str">
         <f>VLOOKUP(H10,$A$1:$B$20,2,FALSE)</f>
         <v>Vérifier le diamètre des roues avant</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N10" s="23">
         <v>2</v>
@@ -10810,10 +10794,10 @@
         <v>Y a-t-il des bruits anormaux ?</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R10" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10822,42 +10806,42 @@
     </row>
     <row r="11" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="G11" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>307</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>308</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" ref="I11:I14" si="4">VLOOKUP(H11,$A$1:$B$20,2,FALSE)</f>
         <v>Vérifier la denture de la couronne d'orientation</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N11" s="23">
         <v>4</v>
@@ -10867,10 +10851,10 @@
         <v>Vérifier l'état de la bande de roulement des roues</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R11" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10879,55 +10863,55 @@
     </row>
     <row r="12" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>310</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>311</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" si="4"/>
         <v>Vérifier l'alignement des roues avec l'axe de roulage</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Vérifier le diamètre des roues avant</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R12" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10936,23 +10920,23 @@
     </row>
     <row r="13" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>314</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>315</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H13" s="23">
         <v>5</v>
@@ -10962,27 +10946,27 @@
         <v>Les câbles sont-ils bien connectés et en bon état ?</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K13" s="23"/>
       <c r="L13" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Vérifier la denture de la couronne d'orientation</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R13" s="23" t="str">
         <f t="shared" si="0"/>
@@ -10994,20 +10978,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>317</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>318</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H14" s="23">
         <v>7</v>
@@ -11017,7 +11001,7 @@
         <v>Le 0 des roues est-il bon ?</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K14" s="23">
         <v>6</v>
@@ -11027,17 +11011,17 @@
         <v>Le problème persiste-t-il après les avoir remplacés et/ou reconnectés ?</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O14" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Vérifier l'alignement des roues avec l'axe de roulage</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="23" t="str">
@@ -11050,36 +11034,36 @@
         <v>6</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>319</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>320</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K15" s="23">
         <v>2</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N15" s="23">
         <v>5</v>
@@ -11089,10 +11073,10 @@
         <v>Les câbles sont-ils bien connectés et en bon état ?</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R15" s="23" t="str">
         <f t="shared" si="0"/>
@@ -11104,25 +11088,25 @@
         <v>7</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>322</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>323</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" s="23">
         <v>8</v>
@@ -11132,7 +11116,7 @@
         <v>Le refaire. Le problème persiste-t-il ?</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N16" s="23">
         <v>5</v>
@@ -11142,10 +11126,10 @@
         <v>Les câbles sont-ils bien connectés et en bon état ?</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R16" s="23" t="str">
         <f t="shared" si="0"/>
@@ -11157,34 +11141,34 @@
         <v>8</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>325</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>326</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17" s="23">
         <v>3</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N17" s="23">
         <v>7</v>
@@ -11194,10 +11178,10 @@
         <v>Le 0 des roues est-il bon ?</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R17" s="34" t="str">
         <f t="shared" si="0"/>
@@ -11207,17 +11191,17 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:N2 P2 A3:P17">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J17 M2:M17 P2:P17">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="notEqual">
       <formula>$M$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
